--- a/Data/Full_data_ML3.xlsx
+++ b/Data/Full_data_ML3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/losialagisz/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9A2716-E865-954C-8A89-02BF41BCFAE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4844A1B-B19D-924A-9CEC-5F5F18F8864E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="40580" windowHeight="23040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId3"/>
+    <pivotCache cacheId="3" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -247,7 +247,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="456">
   <si>
     <t>Study_ID</t>
   </si>
@@ -600,9 +600,6 @@
     <t>light-dark box</t>
   </si>
   <si>
-    <t xml:space="preserve">Not clear but may be intermittent </t>
-  </si>
-  <si>
     <t xml:space="preserve">Novel object </t>
   </si>
   <si>
@@ -1615,13 +1612,16 @@
   </si>
   <si>
     <t>Rate of correct responeses</t>
+  </si>
+  <si>
+    <t>shock</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -1632,12 +1632,6 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1927,7 +1921,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2049,6 +2043,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -10040,425 +10037,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F48DB254-D1C8-C949-A25A-C9C26EF05E66}" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A36:E43" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="75">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0">
-      <items count="98">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="7"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="4"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of ES_ID" fld="3" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8778D12E-7CCE-A247-96E6-0CEEC95E66B0}" name="PivotTable4" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="L36:M42" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="75">
-    <pivotField dataField="1" showAll="0">
-      <items count="33">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="27"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Study_ID" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C2E2E2D7-C779-FE42-94F2-12B0B7E709E0}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C2E2E2D7-C779-FE42-94F2-12B0B7E709E0}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="75">
     <pivotField showAll="0">
@@ -10832,8 +10411,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E2FEF28A-B3FE-984A-8BCE-ED2844012400}" name="PivotTable3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E2FEF28A-B3FE-984A-8BCE-ED2844012400}" name="PivotTable3" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A46:G52" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="75">
     <pivotField showAll="0"/>
@@ -11075,6 +10654,424 @@
   </colItems>
   <dataFields count="1">
     <dataField name="Count of ES_ID" fld="3" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F48DB254-D1C8-C949-A25A-C9C26EF05E66}" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A36:E43" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="75">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="98">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of ES_ID" fld="3" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8778D12E-7CCE-A247-96E6-0CEEC95E66B0}" name="PivotTable4" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="L36:M42" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="75">
+    <pivotField dataField="1" showAll="0">
+      <items count="33">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="27"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Study_ID" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -12243,8 +12240,8 @@
   </sheetPr>
   <dimension ref="A1:BW97"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Z47" workbookViewId="0">
-      <selection activeCell="AG65" sqref="AG65"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="N91" workbookViewId="0">
+      <selection activeCell="Z114" sqref="Z114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12548,7 +12545,7 @@
         <v>73</v>
       </c>
       <c r="BW1" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="2" spans="1:75" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -13375,41 +13372,41 @@
       <c r="Y6" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="Z6" s="10">
-        <v>4</v>
-      </c>
-      <c r="AA6" s="11" t="s">
+      <c r="Z6" s="39">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="40" t="s">
+        <v>455</v>
+      </c>
+      <c r="AB6" s="30">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="10">
+        <v>2</v>
+      </c>
+      <c r="AD6" s="10">
+        <v>3</v>
+      </c>
+      <c r="AE6" s="10">
+        <v>3</v>
+      </c>
+      <c r="AF6" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="AB6" s="30">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="10">
-        <v>2</v>
-      </c>
-      <c r="AD6" s="10">
-        <v>3</v>
-      </c>
-      <c r="AE6" s="10">
-        <v>3</v>
-      </c>
-      <c r="AF6" s="11" t="s">
+      <c r="AG6" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="AG6" s="11" t="s">
+      <c r="AH6" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="AH6" s="11" t="s">
+      <c r="AI6" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="AI6" s="11" t="s">
+      <c r="AJ6" s="10">
+        <v>1</v>
+      </c>
+      <c r="AK6" s="11" t="s">
         <v>121</v>
-      </c>
-      <c r="AJ6" s="10">
-        <v>1</v>
-      </c>
-      <c r="AK6" s="11" t="s">
-        <v>122</v>
       </c>
       <c r="AL6" s="10">
         <v>25</v>
@@ -13472,7 +13469,7 @@
       <c r="BL6" s="12"/>
       <c r="BM6" s="12"/>
       <c r="BN6" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="BO6" s="10">
         <v>3</v>
@@ -13486,7 +13483,7 @@
       <c r="BT6" s="12"/>
       <c r="BU6" s="12"/>
       <c r="BV6" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BW6" s="12"/>
     </row>
@@ -13495,7 +13492,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C7" s="10">
         <v>2014</v>
@@ -13510,7 +13507,7 @@
         <v>76</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H7" s="10">
         <v>2</v>
@@ -13526,7 +13523,7 @@
         <v>4</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N7" s="10">
         <v>3</v>
@@ -13535,7 +13532,7 @@
         <v>4</v>
       </c>
       <c r="P7" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q7" s="10">
         <v>2</v>
@@ -13548,7 +13545,7 @@
         <v>6</v>
       </c>
       <c r="U7" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="V7" s="10">
         <v>1</v>
@@ -13560,7 +13557,7 @@
         <v>10</v>
       </c>
       <c r="Y7" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Z7" s="10">
         <v>2</v>
@@ -13579,22 +13576,22 @@
         <v>3</v>
       </c>
       <c r="AF7" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG7" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="AG7" s="11" t="s">
+      <c r="AH7" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="AH7" s="11" t="s">
-        <v>120</v>
-      </c>
       <c r="AI7" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ7" s="10">
+        <v>1</v>
+      </c>
+      <c r="AK7" s="11" t="s">
         <v>130</v>
-      </c>
-      <c r="AJ7" s="10">
-        <v>1</v>
-      </c>
-      <c r="AK7" s="11" t="s">
-        <v>131</v>
       </c>
       <c r="AL7" s="10">
         <v>14</v>
@@ -13657,7 +13654,7 @@
       <c r="BL7" s="12"/>
       <c r="BM7" s="12"/>
       <c r="BN7" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="BO7" s="10">
         <v>3</v>
@@ -13667,13 +13664,13 @@
         <v>3</v>
       </c>
       <c r="BR7" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="BS7" s="12"/>
       <c r="BT7" s="12"/>
       <c r="BU7" s="12"/>
       <c r="BV7" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="BW7" s="12"/>
     </row>
@@ -13682,7 +13679,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C8" s="10">
         <v>2010</v>
@@ -13694,7 +13691,7 @@
         <v>111</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="10">
@@ -13711,7 +13708,7 @@
         <v>3</v>
       </c>
       <c r="M8" s="32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N8" s="10">
         <v>4</v>
@@ -13720,7 +13717,7 @@
         <v>3</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q8" s="10">
         <v>3</v>
@@ -13733,7 +13730,7 @@
         <v>5</v>
       </c>
       <c r="U8" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="V8" s="10">
         <v>2</v>
@@ -13762,22 +13759,22 @@
         <v>3</v>
       </c>
       <c r="AF8" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="AG8" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="AG8" s="11" t="s">
+      <c r="AH8" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI8" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="AH8" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI8" s="11" t="s">
+      <c r="AJ8" s="10">
+        <v>1</v>
+      </c>
+      <c r="AK8" s="11" t="s">
         <v>141</v>
-      </c>
-      <c r="AJ8" s="10">
-        <v>1</v>
-      </c>
-      <c r="AK8" s="11" t="s">
-        <v>142</v>
       </c>
       <c r="AL8" s="10">
         <v>12</v>
@@ -13840,7 +13837,7 @@
       <c r="BL8" s="12"/>
       <c r="BM8" s="12"/>
       <c r="BN8" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="BO8" s="10">
         <v>3</v>
@@ -13861,7 +13858,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C9" s="10">
         <v>2010</v>
@@ -13873,7 +13870,7 @@
         <v>111</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="10">
@@ -13890,7 +13887,7 @@
         <v>3</v>
       </c>
       <c r="M9" s="32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N9" s="10">
         <v>4</v>
@@ -13899,7 +13896,7 @@
         <v>3</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q9" s="10">
         <v>3</v>
@@ -13912,7 +13909,7 @@
         <v>5</v>
       </c>
       <c r="U9" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="V9" s="10">
         <v>2</v>
@@ -13941,22 +13938,22 @@
         <v>3</v>
       </c>
       <c r="AF9" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AG9" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="AH9" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI9" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ9" s="10">
+        <v>1</v>
+      </c>
+      <c r="AK9" s="11" t="s">
         <v>144</v>
-      </c>
-      <c r="AH9" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI9" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="AJ9" s="10">
-        <v>1</v>
-      </c>
-      <c r="AK9" s="11" t="s">
-        <v>145</v>
       </c>
       <c r="AL9" s="10">
         <v>12</v>
@@ -14019,7 +14016,7 @@
       <c r="BL9" s="12"/>
       <c r="BM9" s="12"/>
       <c r="BN9" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="BO9" s="10">
         <v>3</v>
@@ -14040,7 +14037,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C10" s="10">
         <v>2006</v>
@@ -14052,10 +14049,10 @@
         <v>75</v>
       </c>
       <c r="F10" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>147</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>148</v>
       </c>
       <c r="H10" s="10">
         <v>2</v>
@@ -14071,7 +14068,7 @@
         <v>3</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N10" s="10">
         <v>4</v>
@@ -14080,16 +14077,16 @@
         <v>2</v>
       </c>
       <c r="P10" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q10" s="10">
+        <v>2</v>
+      </c>
+      <c r="R10" s="10">
+        <v>2</v>
+      </c>
+      <c r="S10" s="11" t="s">
         <v>150</v>
-      </c>
-      <c r="Q10" s="10">
-        <v>2</v>
-      </c>
-      <c r="R10" s="10">
-        <v>2</v>
-      </c>
-      <c r="S10" s="11" t="s">
-        <v>151</v>
       </c>
       <c r="T10" s="10">
         <v>5</v>
@@ -14107,7 +14104,7 @@
         <v>9</v>
       </c>
       <c r="Y10" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Z10" s="10">
         <v>2</v>
@@ -14129,19 +14126,19 @@
         <v>82</v>
       </c>
       <c r="AG10" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AH10" s="11" t="s">
         <v>84</v>
       </c>
       <c r="AI10" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="AJ10" s="10">
+        <v>2</v>
+      </c>
+      <c r="AK10" s="11" t="s">
         <v>154</v>
-      </c>
-      <c r="AJ10" s="10">
-        <v>2</v>
-      </c>
-      <c r="AK10" s="11" t="s">
-        <v>155</v>
       </c>
       <c r="AL10" s="10">
         <v>8</v>
@@ -14204,7 +14201,7 @@
       <c r="BL10" s="12"/>
       <c r="BM10" s="12"/>
       <c r="BN10" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BO10" s="10">
         <v>3</v>
@@ -14215,10 +14212,10 @@
       </c>
       <c r="BR10" s="12"/>
       <c r="BS10" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="BT10" s="11" t="s">
         <v>157</v>
-      </c>
-      <c r="BT10" s="11" t="s">
-        <v>158</v>
       </c>
       <c r="BU10" s="12"/>
       <c r="BV10" s="12"/>
@@ -14229,7 +14226,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C11" s="10">
         <v>2006</v>
@@ -14241,10 +14238,10 @@
         <v>75</v>
       </c>
       <c r="F11" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>147</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>148</v>
       </c>
       <c r="H11" s="10">
         <v>2</v>
@@ -14260,7 +14257,7 @@
         <v>3</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N11" s="10">
         <v>4</v>
@@ -14269,16 +14266,16 @@
         <v>2</v>
       </c>
       <c r="P11" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q11" s="10">
+        <v>2</v>
+      </c>
+      <c r="R11" s="10">
+        <v>2</v>
+      </c>
+      <c r="S11" s="11" t="s">
         <v>150</v>
-      </c>
-      <c r="Q11" s="10">
-        <v>2</v>
-      </c>
-      <c r="R11" s="10">
-        <v>2</v>
-      </c>
-      <c r="S11" s="11" t="s">
-        <v>151</v>
       </c>
       <c r="T11" s="10">
         <v>5</v>
@@ -14296,7 +14293,7 @@
         <v>9</v>
       </c>
       <c r="Y11" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Z11" s="10">
         <v>2</v>
@@ -14318,7 +14315,7 @@
         <v>82</v>
       </c>
       <c r="AG11" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AH11" s="11" t="s">
         <v>84</v>
@@ -14328,7 +14325,7 @@
         <v>1</v>
       </c>
       <c r="AK11" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AL11" s="10">
         <v>8</v>
@@ -14391,7 +14388,7 @@
       <c r="BL11" s="12"/>
       <c r="BM11" s="12"/>
       <c r="BN11" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BO11" s="10">
         <v>3</v>
@@ -14402,10 +14399,10 @@
       </c>
       <c r="BR11" s="12"/>
       <c r="BS11" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="BT11" s="11" t="s">
         <v>157</v>
-      </c>
-      <c r="BT11" s="11" t="s">
-        <v>158</v>
       </c>
       <c r="BU11" s="12"/>
       <c r="BV11" s="12"/>
@@ -14416,7 +14413,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C12" s="10">
         <v>2020</v>
@@ -14445,7 +14442,7 @@
         <v>3</v>
       </c>
       <c r="M12" s="40" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="N12" s="10">
         <v>2</v>
@@ -14454,22 +14451,22 @@
         <v>2</v>
       </c>
       <c r="P12" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q12" s="10">
+        <v>2</v>
+      </c>
+      <c r="R12" s="10">
+        <v>3</v>
+      </c>
+      <c r="S12" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="Q12" s="10">
-        <v>2</v>
-      </c>
-      <c r="R12" s="10">
-        <v>3</v>
-      </c>
-      <c r="S12" s="11" t="s">
+      <c r="T12" s="10">
+        <v>2</v>
+      </c>
+      <c r="U12" s="11" t="s">
         <v>163</v>
-      </c>
-      <c r="T12" s="10">
-        <v>2</v>
-      </c>
-      <c r="U12" s="11" t="s">
-        <v>164</v>
       </c>
       <c r="V12" s="10">
         <v>2</v>
@@ -14498,10 +14495,10 @@
         <v>3</v>
       </c>
       <c r="AF12" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AG12" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AH12" s="11" t="s">
         <v>84</v>
@@ -14511,7 +14508,7 @@
         <v>1</v>
       </c>
       <c r="AK12" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AL12" s="10">
         <v>9.5</v>
@@ -14574,7 +14571,7 @@
       <c r="BL12" s="12"/>
       <c r="BM12" s="12"/>
       <c r="BN12" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="BO12" s="10">
         <v>1</v>
@@ -14588,7 +14585,7 @@
       <c r="BT12" s="12"/>
       <c r="BU12" s="12"/>
       <c r="BV12" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BW12" s="12"/>
     </row>
@@ -14597,7 +14594,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C13" s="10">
         <v>2020</v>
@@ -14626,7 +14623,7 @@
         <v>3</v>
       </c>
       <c r="M13" s="40" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="N13" s="10">
         <v>2</v>
@@ -14635,22 +14632,22 @@
         <v>2</v>
       </c>
       <c r="P13" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q13" s="10">
+        <v>2</v>
+      </c>
+      <c r="R13" s="10">
+        <v>3</v>
+      </c>
+      <c r="S13" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="Q13" s="10">
-        <v>2</v>
-      </c>
-      <c r="R13" s="10">
-        <v>3</v>
-      </c>
-      <c r="S13" s="11" t="s">
+      <c r="T13" s="10">
+        <v>2</v>
+      </c>
+      <c r="U13" s="11" t="s">
         <v>163</v>
-      </c>
-      <c r="T13" s="10">
-        <v>2</v>
-      </c>
-      <c r="U13" s="11" t="s">
-        <v>164</v>
       </c>
       <c r="V13" s="10">
         <v>2</v>
@@ -14679,10 +14676,10 @@
         <v>3</v>
       </c>
       <c r="AF13" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AG13" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AH13" s="11" t="s">
         <v>84</v>
@@ -14692,7 +14689,7 @@
         <v>1</v>
       </c>
       <c r="AK13" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AL13" s="10">
         <v>9.5</v>
@@ -14755,7 +14752,7 @@
       <c r="BL13" s="12"/>
       <c r="BM13" s="12"/>
       <c r="BN13" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="BO13" s="10">
         <v>1</v>
@@ -14769,7 +14766,7 @@
       <c r="BT13" s="12"/>
       <c r="BU13" s="12"/>
       <c r="BV13" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BW13" s="12"/>
     </row>
@@ -14778,7 +14775,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C14" s="10">
         <v>2020</v>
@@ -14807,7 +14804,7 @@
         <v>3</v>
       </c>
       <c r="M14" s="40" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="N14" s="10">
         <v>2</v>
@@ -14816,22 +14813,22 @@
         <v>2</v>
       </c>
       <c r="P14" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q14" s="10">
+        <v>2</v>
+      </c>
+      <c r="R14" s="10">
+        <v>3</v>
+      </c>
+      <c r="S14" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="Q14" s="10">
-        <v>2</v>
-      </c>
-      <c r="R14" s="10">
-        <v>3</v>
-      </c>
-      <c r="S14" s="11" t="s">
+      <c r="T14" s="10">
+        <v>2</v>
+      </c>
+      <c r="U14" s="11" t="s">
         <v>163</v>
-      </c>
-      <c r="T14" s="10">
-        <v>2</v>
-      </c>
-      <c r="U14" s="11" t="s">
-        <v>164</v>
       </c>
       <c r="V14" s="10">
         <v>2</v>
@@ -14860,22 +14857,22 @@
         <v>3</v>
       </c>
       <c r="AF14" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AG14" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="AH14" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="AH14" s="11" t="s">
+      <c r="AI14" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="AI14" s="11" t="s">
+      <c r="AJ14" s="10">
+        <v>1</v>
+      </c>
+      <c r="AK14" s="11" t="s">
         <v>172</v>
-      </c>
-      <c r="AJ14" s="10">
-        <v>1</v>
-      </c>
-      <c r="AK14" s="11" t="s">
-        <v>173</v>
       </c>
       <c r="AL14" s="10">
         <v>9.5</v>
@@ -14938,7 +14935,7 @@
       <c r="BL14" s="12"/>
       <c r="BM14" s="12"/>
       <c r="BN14" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="BO14" s="10">
         <v>1</v>
@@ -14952,7 +14949,7 @@
       <c r="BT14" s="12"/>
       <c r="BU14" s="12"/>
       <c r="BV14" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BW14" s="12"/>
     </row>
@@ -14961,7 +14958,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C15" s="10">
         <v>2020</v>
@@ -14990,7 +14987,7 @@
         <v>3</v>
       </c>
       <c r="M15" s="40" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="N15" s="10">
         <v>2</v>
@@ -14999,22 +14996,22 @@
         <v>2</v>
       </c>
       <c r="P15" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q15" s="10">
+        <v>2</v>
+      </c>
+      <c r="R15" s="10">
+        <v>3</v>
+      </c>
+      <c r="S15" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="Q15" s="10">
-        <v>2</v>
-      </c>
-      <c r="R15" s="10">
-        <v>3</v>
-      </c>
-      <c r="S15" s="11" t="s">
+      <c r="T15" s="10">
+        <v>2</v>
+      </c>
+      <c r="U15" s="11" t="s">
         <v>163</v>
-      </c>
-      <c r="T15" s="10">
-        <v>2</v>
-      </c>
-      <c r="U15" s="11" t="s">
-        <v>164</v>
       </c>
       <c r="V15" s="10">
         <v>2</v>
@@ -15043,22 +15040,22 @@
         <v>3</v>
       </c>
       <c r="AF15" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AG15" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="AH15" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="AI15" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="AJ15" s="10">
+        <v>1</v>
+      </c>
+      <c r="AK15" s="11" t="s">
         <v>174</v>
-      </c>
-      <c r="AH15" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="AI15" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="AJ15" s="10">
-        <v>1</v>
-      </c>
-      <c r="AK15" s="11" t="s">
-        <v>175</v>
       </c>
       <c r="AL15" s="10">
         <v>9.5</v>
@@ -15121,7 +15118,7 @@
       <c r="BL15" s="12"/>
       <c r="BM15" s="12"/>
       <c r="BN15" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="BO15" s="10">
         <v>1</v>
@@ -15135,7 +15132,7 @@
       <c r="BT15" s="12"/>
       <c r="BU15" s="12"/>
       <c r="BV15" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BW15" s="12"/>
     </row>
@@ -15144,7 +15141,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C16" s="10">
         <v>2020</v>
@@ -15173,7 +15170,7 @@
         <v>3</v>
       </c>
       <c r="M16" s="40" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="N16" s="10">
         <v>2</v>
@@ -15182,22 +15179,22 @@
         <v>2</v>
       </c>
       <c r="P16" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q16" s="10">
+        <v>2</v>
+      </c>
+      <c r="R16" s="10">
+        <v>3</v>
+      </c>
+      <c r="S16" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="Q16" s="10">
-        <v>2</v>
-      </c>
-      <c r="R16" s="10">
-        <v>3</v>
-      </c>
-      <c r="S16" s="11" t="s">
+      <c r="T16" s="10">
+        <v>2</v>
+      </c>
+      <c r="U16" s="11" t="s">
         <v>163</v>
-      </c>
-      <c r="T16" s="10">
-        <v>2</v>
-      </c>
-      <c r="U16" s="11" t="s">
-        <v>164</v>
       </c>
       <c r="V16" s="10">
         <v>2</v>
@@ -15226,22 +15223,22 @@
         <v>2</v>
       </c>
       <c r="AF16" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="AG16" s="11" t="s">
         <v>176</v>
-      </c>
-      <c r="AG16" s="11" t="s">
-        <v>177</v>
       </c>
       <c r="AH16" s="11" t="s">
         <v>84</v>
       </c>
       <c r="AI16" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="AJ16" s="10">
+        <v>1</v>
+      </c>
+      <c r="AK16" s="11" t="s">
         <v>178</v>
-      </c>
-      <c r="AJ16" s="10">
-        <v>1</v>
-      </c>
-      <c r="AK16" s="11" t="s">
-        <v>179</v>
       </c>
       <c r="AL16" s="10">
         <v>10</v>
@@ -15304,7 +15301,7 @@
       <c r="BL16" s="12"/>
       <c r="BM16" s="12"/>
       <c r="BN16" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="BO16" s="10">
         <v>1</v>
@@ -15325,7 +15322,7 @@
         <v>7</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C17" s="10">
         <v>2020</v>
@@ -15354,7 +15351,7 @@
         <v>3</v>
       </c>
       <c r="M17" s="40" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="N17" s="10">
         <v>2</v>
@@ -15363,22 +15360,22 @@
         <v>2</v>
       </c>
       <c r="P17" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q17" s="10">
+        <v>2</v>
+      </c>
+      <c r="R17" s="10">
+        <v>3</v>
+      </c>
+      <c r="S17" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="Q17" s="10">
-        <v>2</v>
-      </c>
-      <c r="R17" s="10">
-        <v>3</v>
-      </c>
-      <c r="S17" s="11" t="s">
+      <c r="T17" s="10">
+        <v>2</v>
+      </c>
+      <c r="U17" s="11" t="s">
         <v>163</v>
-      </c>
-      <c r="T17" s="10">
-        <v>2</v>
-      </c>
-      <c r="U17" s="11" t="s">
-        <v>164</v>
       </c>
       <c r="V17" s="10">
         <v>2</v>
@@ -15407,22 +15404,22 @@
         <v>2</v>
       </c>
       <c r="AF17" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AG17" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AH17" s="11" t="s">
         <v>84</v>
       </c>
       <c r="AI17" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AJ17" s="10">
         <v>1</v>
       </c>
       <c r="AK17" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AL17" s="10">
         <v>10</v>
@@ -15485,7 +15482,7 @@
       <c r="BL17" s="12"/>
       <c r="BM17" s="12"/>
       <c r="BN17" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="BO17" s="10">
         <v>1</v>
@@ -15506,7 +15503,7 @@
         <v>7</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C18" s="10">
         <v>2020</v>
@@ -15535,7 +15532,7 @@
         <v>3</v>
       </c>
       <c r="M18" s="40" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="N18" s="10">
         <v>2</v>
@@ -15544,22 +15541,22 @@
         <v>2</v>
       </c>
       <c r="P18" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q18" s="10">
+        <v>2</v>
+      </c>
+      <c r="R18" s="10">
+        <v>3</v>
+      </c>
+      <c r="S18" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="Q18" s="10">
-        <v>2</v>
-      </c>
-      <c r="R18" s="10">
-        <v>3</v>
-      </c>
-      <c r="S18" s="11" t="s">
+      <c r="T18" s="10">
+        <v>2</v>
+      </c>
+      <c r="U18" s="11" t="s">
         <v>163</v>
-      </c>
-      <c r="T18" s="10">
-        <v>2</v>
-      </c>
-      <c r="U18" s="11" t="s">
-        <v>164</v>
       </c>
       <c r="V18" s="10">
         <v>2</v>
@@ -15588,22 +15585,22 @@
         <v>2</v>
       </c>
       <c r="AF18" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="AG18" s="11" t="s">
         <v>182</v>
-      </c>
-      <c r="AG18" s="11" t="s">
-        <v>183</v>
       </c>
       <c r="AH18" s="11" t="s">
         <v>84</v>
       </c>
       <c r="AI18" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AJ18" s="10">
         <v>2</v>
       </c>
       <c r="AK18" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AL18" s="10">
         <v>9</v>
@@ -15666,7 +15663,7 @@
       <c r="BL18" s="12"/>
       <c r="BM18" s="12"/>
       <c r="BN18" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="BO18" s="10">
         <v>1</v>
@@ -15687,7 +15684,7 @@
         <v>7</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C19" s="10">
         <v>2020</v>
@@ -15716,7 +15713,7 @@
         <v>3</v>
       </c>
       <c r="M19" s="40" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="N19" s="10">
         <v>2</v>
@@ -15725,22 +15722,22 @@
         <v>2</v>
       </c>
       <c r="P19" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q19" s="10">
+        <v>2</v>
+      </c>
+      <c r="R19" s="10">
+        <v>3</v>
+      </c>
+      <c r="S19" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="Q19" s="10">
-        <v>2</v>
-      </c>
-      <c r="R19" s="10">
-        <v>3</v>
-      </c>
-      <c r="S19" s="11" t="s">
+      <c r="T19" s="10">
+        <v>2</v>
+      </c>
+      <c r="U19" s="11" t="s">
         <v>163</v>
-      </c>
-      <c r="T19" s="10">
-        <v>2</v>
-      </c>
-      <c r="U19" s="11" t="s">
-        <v>164</v>
       </c>
       <c r="V19" s="10">
         <v>2</v>
@@ -15769,22 +15766,22 @@
         <v>2</v>
       </c>
       <c r="AF19" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AG19" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AH19" s="11" t="s">
         <v>84</v>
       </c>
       <c r="AI19" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AJ19" s="10">
         <v>2</v>
       </c>
       <c r="AK19" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AL19" s="10">
         <v>9</v>
@@ -15847,7 +15844,7 @@
       <c r="BL19" s="12"/>
       <c r="BM19" s="12"/>
       <c r="BN19" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="BO19" s="10">
         <v>1</v>
@@ -15868,7 +15865,7 @@
         <v>7</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C20" s="10">
         <v>2020</v>
@@ -15897,7 +15894,7 @@
         <v>3</v>
       </c>
       <c r="M20" s="40" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="N20" s="10">
         <v>2</v>
@@ -15906,22 +15903,22 @@
         <v>2</v>
       </c>
       <c r="P20" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q20" s="10">
+        <v>2</v>
+      </c>
+      <c r="R20" s="10">
+        <v>3</v>
+      </c>
+      <c r="S20" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="Q20" s="10">
-        <v>2</v>
-      </c>
-      <c r="R20" s="10">
-        <v>3</v>
-      </c>
-      <c r="S20" s="11" t="s">
+      <c r="T20" s="10">
+        <v>2</v>
+      </c>
+      <c r="U20" s="11" t="s">
         <v>163</v>
-      </c>
-      <c r="T20" s="10">
-        <v>2</v>
-      </c>
-      <c r="U20" s="11" t="s">
-        <v>164</v>
       </c>
       <c r="V20" s="10">
         <v>2</v>
@@ -15950,22 +15947,22 @@
         <v>2</v>
       </c>
       <c r="AF20" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AG20" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH20" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI20" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="AJ20" s="10">
+        <v>1</v>
+      </c>
+      <c r="AK20" s="11" t="s">
         <v>187</v>
-      </c>
-      <c r="AH20" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI20" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="AJ20" s="10">
-        <v>1</v>
-      </c>
-      <c r="AK20" s="11" t="s">
-        <v>188</v>
       </c>
       <c r="AL20" s="10">
         <v>9</v>
@@ -16028,7 +16025,7 @@
       <c r="BL20" s="12"/>
       <c r="BM20" s="12"/>
       <c r="BN20" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="BO20" s="10">
         <v>1</v>
@@ -16049,7 +16046,7 @@
         <v>8</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C21" s="10">
         <v>2009</v>
@@ -16078,7 +16075,7 @@
         <v>4</v>
       </c>
       <c r="M21" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N21" s="10">
         <v>4</v>
@@ -16087,7 +16084,7 @@
         <v>4</v>
       </c>
       <c r="P21" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Q21" s="10">
         <v>3</v>
@@ -16096,13 +16093,13 @@
         <v>3</v>
       </c>
       <c r="S21" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="T21" s="10">
         <v>5</v>
       </c>
       <c r="U21" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="V21" s="10">
         <v>2</v>
@@ -16131,20 +16128,20 @@
         <v>2</v>
       </c>
       <c r="AF21" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG21" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="AG21" s="11" t="s">
-        <v>193</v>
-      </c>
       <c r="AH21" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AI21" s="12"/>
       <c r="AJ21" s="10">
         <v>1</v>
       </c>
       <c r="AK21" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AL21" s="10">
         <v>11.5</v>
@@ -16207,7 +16204,7 @@
       <c r="BL21" s="12"/>
       <c r="BM21" s="12"/>
       <c r="BN21" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="BO21" s="10">
         <v>3</v>
@@ -16221,7 +16218,7 @@
       <c r="BT21" s="12"/>
       <c r="BU21" s="12"/>
       <c r="BV21" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BW21" s="12"/>
     </row>
@@ -16230,7 +16227,7 @@
         <v>8</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C22" s="10">
         <v>2009</v>
@@ -16259,7 +16256,7 @@
         <v>4</v>
       </c>
       <c r="M22" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N22" s="10">
         <v>4</v>
@@ -16268,7 +16265,7 @@
         <v>4</v>
       </c>
       <c r="P22" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Q22" s="10">
         <v>3</v>
@@ -16277,13 +16274,13 @@
         <v>3</v>
       </c>
       <c r="S22" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="T22" s="10">
         <v>5</v>
       </c>
       <c r="U22" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="V22" s="10">
         <v>2</v>
@@ -16312,20 +16309,20 @@
         <v>2</v>
       </c>
       <c r="AF22" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AG22" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AH22" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AI22" s="12"/>
       <c r="AJ22" s="10">
         <v>1</v>
       </c>
       <c r="AK22" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AL22" s="10">
         <v>11.5</v>
@@ -16388,7 +16385,7 @@
       <c r="BL22" s="12"/>
       <c r="BM22" s="12"/>
       <c r="BN22" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="BO22" s="10">
         <v>3</v>
@@ -16402,7 +16399,7 @@
       <c r="BT22" s="12"/>
       <c r="BU22" s="12"/>
       <c r="BV22" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BW22" s="12"/>
     </row>
@@ -16411,7 +16408,7 @@
         <v>8</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C23" s="10">
         <v>2009</v>
@@ -16440,7 +16437,7 @@
         <v>4</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N23" s="10">
         <v>4</v>
@@ -16449,7 +16446,7 @@
         <v>4</v>
       </c>
       <c r="P23" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Q23" s="10">
         <v>3</v>
@@ -16458,13 +16455,13 @@
         <v>3</v>
       </c>
       <c r="S23" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="T23" s="10">
         <v>5</v>
       </c>
       <c r="U23" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="V23" s="10">
         <v>2</v>
@@ -16493,20 +16490,20 @@
         <v>2</v>
       </c>
       <c r="AF23" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="AG23" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="AG23" s="11" t="s">
-        <v>200</v>
-      </c>
       <c r="AH23" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AI23" s="12"/>
       <c r="AJ23" s="10">
         <v>1</v>
       </c>
       <c r="AK23" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AL23" s="10">
         <v>10</v>
@@ -16569,7 +16566,7 @@
       <c r="BL23" s="12"/>
       <c r="BM23" s="12"/>
       <c r="BN23" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="BO23" s="10">
         <v>3</v>
@@ -16583,7 +16580,7 @@
       <c r="BT23" s="12"/>
       <c r="BU23" s="12"/>
       <c r="BV23" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BW23" s="12"/>
     </row>
@@ -16592,7 +16589,7 @@
         <v>9</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C24" s="10">
         <v>2018</v>
@@ -16621,7 +16618,7 @@
         <v>3</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N24" s="10">
         <v>2</v>
@@ -16641,7 +16638,7 @@
         <v>5</v>
       </c>
       <c r="U24" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="V24" s="10">
         <v>1</v>
@@ -16673,19 +16670,19 @@
         <v>82</v>
       </c>
       <c r="AG24" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AH24" s="11" t="s">
         <v>84</v>
       </c>
       <c r="AI24" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AJ24" s="36">
         <v>2</v>
       </c>
       <c r="AK24" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AL24" s="10">
         <v>15.25</v>
@@ -16748,7 +16745,7 @@
       <c r="BL24" s="12"/>
       <c r="BM24" s="12"/>
       <c r="BN24" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BO24" s="10">
         <v>3</v>
@@ -16759,15 +16756,15 @@
       </c>
       <c r="BR24" s="12"/>
       <c r="BS24" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BT24" s="12"/>
       <c r="BU24" s="12"/>
       <c r="BV24" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="BW24" s="11" t="s">
         <v>209</v>
-      </c>
-      <c r="BW24" s="11" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="25" spans="1:75" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -16775,7 +16772,7 @@
         <v>9</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C25" s="10">
         <v>2018</v>
@@ -16804,7 +16801,7 @@
         <v>3</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N25" s="10">
         <v>2</v>
@@ -16824,7 +16821,7 @@
         <v>5</v>
       </c>
       <c r="U25" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="V25" s="10">
         <v>1</v>
@@ -16856,19 +16853,19 @@
         <v>82</v>
       </c>
       <c r="AG25" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AH25" s="11" t="s">
         <v>84</v>
       </c>
       <c r="AI25" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AJ25" s="36">
         <v>2</v>
       </c>
       <c r="AK25" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AL25" s="10">
         <v>15.25</v>
@@ -16931,7 +16928,7 @@
       <c r="BL25" s="12"/>
       <c r="BM25" s="12"/>
       <c r="BN25" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BO25" s="10">
         <v>3</v>
@@ -16942,15 +16939,15 @@
       </c>
       <c r="BR25" s="12"/>
       <c r="BS25" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BT25" s="12"/>
       <c r="BU25" s="12"/>
       <c r="BV25" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="BW25" s="11" t="s">
         <v>209</v>
-      </c>
-      <c r="BW25" s="11" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:75" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -16958,7 +16955,7 @@
         <v>9</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C26" s="10">
         <v>2018</v>
@@ -16987,7 +16984,7 @@
         <v>3</v>
       </c>
       <c r="M26" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N26" s="10">
         <v>2</v>
@@ -17007,7 +17004,7 @@
         <v>5</v>
       </c>
       <c r="U26" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="V26" s="10">
         <v>1</v>
@@ -17039,19 +17036,19 @@
         <v>82</v>
       </c>
       <c r="AG26" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="AH26" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI26" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="AH26" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI26" s="11" t="s">
+      <c r="AJ26" s="10">
+        <v>1</v>
+      </c>
+      <c r="AK26" s="11" t="s">
         <v>212</v>
-      </c>
-      <c r="AJ26" s="10">
-        <v>1</v>
-      </c>
-      <c r="AK26" s="11" t="s">
-        <v>213</v>
       </c>
       <c r="AL26" s="10">
         <v>15.25</v>
@@ -17114,7 +17111,7 @@
       <c r="BL26" s="12"/>
       <c r="BM26" s="12"/>
       <c r="BN26" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BO26" s="10">
         <v>3</v>
@@ -17128,10 +17125,10 @@
       <c r="BT26" s="12"/>
       <c r="BU26" s="12"/>
       <c r="BV26" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="BW26" s="11" t="s">
         <v>209</v>
-      </c>
-      <c r="BW26" s="11" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="27" spans="1:75" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -17139,7 +17136,7 @@
         <v>9</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C27" s="10">
         <v>2018</v>
@@ -17168,7 +17165,7 @@
         <v>3</v>
       </c>
       <c r="M27" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N27" s="10">
         <v>2</v>
@@ -17188,7 +17185,7 @@
         <v>5</v>
       </c>
       <c r="U27" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="V27" s="10">
         <v>1</v>
@@ -17220,19 +17217,19 @@
         <v>82</v>
       </c>
       <c r="AG27" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="AH27" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI27" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="AH27" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI27" s="11" t="s">
-        <v>212</v>
-      </c>
       <c r="AJ27" s="10">
         <v>1</v>
       </c>
       <c r="AK27" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AL27" s="10">
         <v>15.25</v>
@@ -17295,7 +17292,7 @@
       <c r="BL27" s="12"/>
       <c r="BM27" s="12"/>
       <c r="BN27" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BO27" s="10">
         <v>3</v>
@@ -17309,10 +17306,10 @@
       <c r="BT27" s="12"/>
       <c r="BU27" s="12"/>
       <c r="BV27" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="BW27" s="11" t="s">
         <v>209</v>
-      </c>
-      <c r="BW27" s="11" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="28" spans="1:75" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -17320,7 +17317,7 @@
         <v>10</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C28" s="10">
         <v>2016</v>
@@ -17363,13 +17360,13 @@
         <v>2</v>
       </c>
       <c r="S28" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T28" s="10">
         <v>5</v>
       </c>
       <c r="U28" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V28" s="10">
         <v>1</v>
@@ -17398,22 +17395,22 @@
         <v>3</v>
       </c>
       <c r="AF28" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="AG28" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="AG28" s="11" t="s">
+      <c r="AH28" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="AH28" s="11" t="s">
+      <c r="AI28" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="AI28" s="37" t="s">
+      <c r="AJ28" s="36">
+        <v>1</v>
+      </c>
+      <c r="AK28" s="37" t="s">
         <v>221</v>
-      </c>
-      <c r="AJ28" s="36">
-        <v>1</v>
-      </c>
-      <c r="AK28" s="37" t="s">
-        <v>222</v>
       </c>
       <c r="AL28" s="10">
         <v>6</v>
@@ -17476,7 +17473,7 @@
       <c r="BL28" s="12"/>
       <c r="BM28" s="12"/>
       <c r="BN28" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="BO28" s="10">
         <v>3</v>
@@ -17490,7 +17487,7 @@
       <c r="BT28" s="12"/>
       <c r="BU28" s="12"/>
       <c r="BV28" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="BW28" s="12"/>
     </row>
@@ -17499,7 +17496,7 @@
         <v>10</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C29" s="10">
         <v>2016</v>
@@ -17542,13 +17539,13 @@
         <v>2</v>
       </c>
       <c r="S29" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T29" s="10">
         <v>5</v>
       </c>
       <c r="U29" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V29" s="10">
         <v>1</v>
@@ -17577,22 +17574,22 @@
         <v>3</v>
       </c>
       <c r="AF29" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="AG29" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="AG29" s="11" t="s">
+      <c r="AH29" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="AH29" s="11" t="s">
-        <v>220</v>
-      </c>
       <c r="AI29" s="37" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AJ29" s="36">
         <v>1</v>
       </c>
       <c r="AK29" s="37" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AL29" s="10">
         <v>6</v>
@@ -17655,7 +17652,7 @@
       <c r="BL29" s="12"/>
       <c r="BM29" s="12"/>
       <c r="BN29" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="BO29" s="10">
         <v>3</v>
@@ -17669,7 +17666,7 @@
       <c r="BT29" s="12"/>
       <c r="BU29" s="12"/>
       <c r="BV29" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="BW29" s="12"/>
     </row>
@@ -17678,7 +17675,7 @@
         <v>10</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C30" s="10">
         <v>2016</v>
@@ -17721,13 +17718,13 @@
         <v>2</v>
       </c>
       <c r="S30" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T30" s="10">
         <v>5</v>
       </c>
       <c r="U30" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V30" s="10">
         <v>1</v>
@@ -17756,22 +17753,22 @@
         <v>1</v>
       </c>
       <c r="AF30" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AG30" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="AH30" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="AH30" s="11" t="s">
+      <c r="AI30" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="AI30" s="11" t="s">
+      <c r="AJ30" s="10">
+        <v>1</v>
+      </c>
+      <c r="AK30" s="11" t="s">
         <v>229</v>
-      </c>
-      <c r="AJ30" s="10">
-        <v>1</v>
-      </c>
-      <c r="AK30" s="11" t="s">
-        <v>230</v>
       </c>
       <c r="AL30" s="10">
         <v>6</v>
@@ -17834,7 +17831,7 @@
       <c r="BL30" s="12"/>
       <c r="BM30" s="12"/>
       <c r="BN30" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="BO30" s="10">
         <v>3</v>
@@ -17855,7 +17852,7 @@
         <v>10</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C31" s="10">
         <v>2016</v>
@@ -17898,13 +17895,13 @@
         <v>2</v>
       </c>
       <c r="S31" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T31" s="10">
         <v>5</v>
       </c>
       <c r="U31" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V31" s="10">
         <v>1</v>
@@ -17933,22 +17930,22 @@
         <v>1</v>
       </c>
       <c r="AF31" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AG31" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="AH31" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="AH31" s="11" t="s">
-        <v>228</v>
-      </c>
       <c r="AI31" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AJ31" s="10">
         <v>1</v>
       </c>
       <c r="AK31" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AL31" s="10">
         <v>6</v>
@@ -18011,7 +18008,7 @@
       <c r="BL31" s="12"/>
       <c r="BM31" s="12"/>
       <c r="BN31" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="BO31" s="10">
         <v>3</v>
@@ -18032,7 +18029,7 @@
         <v>11</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C32" s="10">
         <v>2018</v>
@@ -18079,7 +18076,7 @@
         <v>5</v>
       </c>
       <c r="U32" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="V32" s="10">
         <v>1</v>
@@ -18111,19 +18108,19 @@
         <v>82</v>
       </c>
       <c r="AG32" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AH32" s="11" t="s">
         <v>84</v>
       </c>
       <c r="AI32" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ32" s="10">
+        <v>2</v>
+      </c>
+      <c r="AK32" s="11" t="s">
         <v>235</v>
-      </c>
-      <c r="AJ32" s="10">
-        <v>2</v>
-      </c>
-      <c r="AK32" s="11" t="s">
-        <v>236</v>
       </c>
       <c r="AL32" s="10">
         <v>6</v>
@@ -18178,7 +18175,7 @@
       <c r="BL32" s="12"/>
       <c r="BM32" s="12"/>
       <c r="BN32" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BO32" s="10">
         <v>3</v>
@@ -18199,7 +18196,7 @@
         <v>11</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C33" s="10">
         <v>2018</v>
@@ -18246,7 +18243,7 @@
         <v>5</v>
       </c>
       <c r="U33" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="V33" s="10">
         <v>1</v>
@@ -18278,19 +18275,19 @@
         <v>82</v>
       </c>
       <c r="AG33" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AH33" s="11" t="s">
         <v>84</v>
       </c>
       <c r="AI33" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AJ33" s="10">
         <v>2</v>
       </c>
       <c r="AK33" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AL33" s="10">
         <v>6</v>
@@ -18345,7 +18342,7 @@
       <c r="BL33" s="12"/>
       <c r="BM33" s="12"/>
       <c r="BN33" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BO33" s="10">
         <v>3</v>
@@ -18366,7 +18363,7 @@
         <v>12</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C34" s="10">
         <v>2021</v>
@@ -18413,7 +18410,7 @@
         <v>2</v>
       </c>
       <c r="U34" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="V34" s="10">
         <v>2</v>
@@ -18442,22 +18439,22 @@
         <v>2</v>
       </c>
       <c r="AF34" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="AG34" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="AG34" s="11" t="s">
+      <c r="AH34" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="AH34" s="11" t="s">
+      <c r="AI34" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="AI34" s="11" t="s">
-        <v>244</v>
-      </c>
       <c r="AJ34" s="10">
         <v>1</v>
       </c>
       <c r="AK34" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AL34" s="10">
         <v>14</v>
@@ -18520,7 +18517,7 @@
       <c r="BL34" s="12"/>
       <c r="BM34" s="12"/>
       <c r="BN34" s="11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="BO34" s="10">
         <v>1</v>
@@ -18530,7 +18527,7 @@
         <v>3</v>
       </c>
       <c r="BR34" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="BS34" s="12"/>
       <c r="BT34" s="12"/>
@@ -18543,7 +18540,7 @@
         <v>12</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C35" s="10">
         <v>2021</v>
@@ -18590,7 +18587,7 @@
         <v>2</v>
       </c>
       <c r="U35" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="V35" s="10">
         <v>2</v>
@@ -18619,20 +18616,20 @@
         <v>2</v>
       </c>
       <c r="AF35" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AG35" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AH35" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AI35" s="12"/>
       <c r="AJ35" s="10">
         <v>1</v>
       </c>
       <c r="AK35" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AL35" s="10">
         <v>8</v>
@@ -18695,7 +18692,7 @@
       <c r="BL35" s="12"/>
       <c r="BM35" s="12"/>
       <c r="BN35" s="11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="BO35" s="10">
         <v>1</v>
@@ -18705,7 +18702,7 @@
         <v>3</v>
       </c>
       <c r="BR35" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="BS35" s="12"/>
       <c r="BT35" s="12"/>
@@ -18718,7 +18715,7 @@
         <v>13</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C36" s="10">
         <v>2016</v>
@@ -18730,7 +18727,7 @@
         <v>75</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G36" s="12"/>
       <c r="H36" s="10">
@@ -18765,7 +18762,7 @@
         <v>5</v>
       </c>
       <c r="U36" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="V36" s="10">
         <v>1</v>
@@ -18777,10 +18774,12 @@
         <v>3</v>
       </c>
       <c r="Y36" s="12"/>
-      <c r="Z36" s="10">
-        <v>4</v>
-      </c>
-      <c r="AA36" s="12"/>
+      <c r="Z36" s="39">
+        <v>1</v>
+      </c>
+      <c r="AA36" s="41" t="s">
+        <v>455</v>
+      </c>
       <c r="AB36" s="10">
         <v>3</v>
       </c>
@@ -18797,7 +18796,7 @@
         <v>82</v>
       </c>
       <c r="AG36" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AH36" s="11" t="s">
         <v>84</v>
@@ -18807,7 +18806,7 @@
         <v>1</v>
       </c>
       <c r="AK36" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AL36" s="10">
         <v>12</v>
@@ -18870,7 +18869,7 @@
       <c r="BL36" s="12"/>
       <c r="BM36" s="12"/>
       <c r="BN36" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BO36" s="10">
         <v>1</v>
@@ -18891,7 +18890,7 @@
         <v>14</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C37" s="10">
         <v>2020</v>
@@ -18903,10 +18902,10 @@
         <v>111</v>
       </c>
       <c r="F37" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="G37" s="11" t="s">
         <v>254</v>
-      </c>
-      <c r="G37" s="11" t="s">
-        <v>255</v>
       </c>
       <c r="H37" s="10">
         <v>2</v>
@@ -18940,7 +18939,7 @@
         <v>6</v>
       </c>
       <c r="U37" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="V37" s="10">
         <v>2</v>
@@ -18952,7 +18951,7 @@
         <v>9</v>
       </c>
       <c r="Y37" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Z37" s="10">
         <v>2</v>
@@ -18971,20 +18970,20 @@
         <v>3</v>
       </c>
       <c r="AF37" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="AG37" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="AG37" s="11" t="s">
-        <v>259</v>
-      </c>
       <c r="AH37" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AI37" s="12"/>
       <c r="AJ37" s="10">
         <v>1</v>
       </c>
       <c r="AK37" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AL37" s="10">
         <v>13</v>
@@ -19039,26 +19038,26 @@
       <c r="BL37" s="12"/>
       <c r="BM37" s="12"/>
       <c r="BN37" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="BO37" s="10">
+        <v>3</v>
+      </c>
+      <c r="BP37" s="11" t="s">
         <v>261</v>
-      </c>
-      <c r="BO37" s="10">
-        <v>3</v>
-      </c>
-      <c r="BP37" s="11" t="s">
-        <v>262</v>
       </c>
       <c r="BQ37" s="31">
         <v>3</v>
       </c>
       <c r="BR37" s="12"/>
       <c r="BS37" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="BT37" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="BT37" s="11" t="s">
+      <c r="BU37" s="11" t="s">
         <v>264</v>
-      </c>
-      <c r="BU37" s="11" t="s">
-        <v>265</v>
       </c>
       <c r="BV37" s="12"/>
       <c r="BW37" s="12"/>
@@ -19068,7 +19067,7 @@
         <v>14</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C38" s="10">
         <v>2020</v>
@@ -19080,10 +19079,10 @@
         <v>111</v>
       </c>
       <c r="F38" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="G38" s="11" t="s">
         <v>254</v>
-      </c>
-      <c r="G38" s="11" t="s">
-        <v>255</v>
       </c>
       <c r="H38" s="10">
         <v>2</v>
@@ -19117,7 +19116,7 @@
         <v>6</v>
       </c>
       <c r="U38" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="V38" s="10">
         <v>2</v>
@@ -19129,7 +19128,7 @@
         <v>9</v>
       </c>
       <c r="Y38" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Z38" s="10">
         <v>2</v>
@@ -19148,20 +19147,20 @@
         <v>3</v>
       </c>
       <c r="AF38" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AG38" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AH38" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AI38" s="12"/>
       <c r="AJ38" s="10">
         <v>1</v>
       </c>
       <c r="AK38" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AL38" s="10">
         <v>13</v>
@@ -19216,26 +19215,26 @@
       <c r="BL38" s="12"/>
       <c r="BM38" s="12"/>
       <c r="BN38" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="BO38" s="10">
+        <v>3</v>
+      </c>
+      <c r="BP38" s="11" t="s">
         <v>261</v>
-      </c>
-      <c r="BO38" s="10">
-        <v>3</v>
-      </c>
-      <c r="BP38" s="11" t="s">
-        <v>262</v>
       </c>
       <c r="BQ38" s="31">
         <v>3</v>
       </c>
       <c r="BR38" s="12"/>
       <c r="BS38" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="BT38" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="BT38" s="11" t="s">
+      <c r="BU38" s="11" t="s">
         <v>264</v>
-      </c>
-      <c r="BU38" s="11" t="s">
-        <v>265</v>
       </c>
       <c r="BV38" s="12"/>
       <c r="BW38" s="12"/>
@@ -19245,7 +19244,7 @@
         <v>14</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C39" s="10">
         <v>2020</v>
@@ -19257,10 +19256,10 @@
         <v>111</v>
       </c>
       <c r="F39" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="G39" s="11" t="s">
         <v>254</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>255</v>
       </c>
       <c r="H39" s="10">
         <v>2</v>
@@ -19294,7 +19293,7 @@
         <v>6</v>
       </c>
       <c r="U39" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="V39" s="10">
         <v>2</v>
@@ -19306,7 +19305,7 @@
         <v>9</v>
       </c>
       <c r="Y39" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Z39" s="10">
         <v>2</v>
@@ -19325,20 +19324,20 @@
         <v>3</v>
       </c>
       <c r="AF39" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AG39" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AH39" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AI39" s="12"/>
       <c r="AJ39" s="10">
         <v>1</v>
       </c>
       <c r="AK39" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AL39" s="10">
         <v>13</v>
@@ -19393,26 +19392,26 @@
       <c r="BL39" s="12"/>
       <c r="BM39" s="12"/>
       <c r="BN39" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="BO39" s="10">
+        <v>3</v>
+      </c>
+      <c r="BP39" s="11" t="s">
         <v>261</v>
-      </c>
-      <c r="BO39" s="10">
-        <v>3</v>
-      </c>
-      <c r="BP39" s="11" t="s">
-        <v>262</v>
       </c>
       <c r="BQ39" s="31">
         <v>3</v>
       </c>
       <c r="BR39" s="12"/>
       <c r="BS39" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="BT39" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="BT39" s="11" t="s">
+      <c r="BU39" s="11" t="s">
         <v>264</v>
-      </c>
-      <c r="BU39" s="11" t="s">
-        <v>265</v>
       </c>
       <c r="BV39" s="12"/>
       <c r="BW39" s="12"/>
@@ -19422,7 +19421,7 @@
         <v>14</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C40" s="10">
         <v>2020</v>
@@ -19434,10 +19433,10 @@
         <v>111</v>
       </c>
       <c r="F40" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="G40" s="11" t="s">
         <v>254</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>255</v>
       </c>
       <c r="H40" s="10">
         <v>2</v>
@@ -19471,7 +19470,7 @@
         <v>6</v>
       </c>
       <c r="U40" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="V40" s="10">
         <v>2</v>
@@ -19483,7 +19482,7 @@
         <v>9</v>
       </c>
       <c r="Y40" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Z40" s="10">
         <v>2</v>
@@ -19502,20 +19501,20 @@
         <v>3</v>
       </c>
       <c r="AF40" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AG40" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AH40" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AI40" s="12"/>
       <c r="AJ40" s="10">
         <v>1</v>
       </c>
       <c r="AK40" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AL40" s="10">
         <v>13</v>
@@ -19570,26 +19569,26 @@
       <c r="BL40" s="12"/>
       <c r="BM40" s="12"/>
       <c r="BN40" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="BO40" s="10">
+        <v>3</v>
+      </c>
+      <c r="BP40" s="11" t="s">
         <v>261</v>
-      </c>
-      <c r="BO40" s="10">
-        <v>3</v>
-      </c>
-      <c r="BP40" s="11" t="s">
-        <v>262</v>
       </c>
       <c r="BQ40" s="31">
         <v>3</v>
       </c>
       <c r="BR40" s="12"/>
       <c r="BS40" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="BT40" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="BT40" s="11" t="s">
+      <c r="BU40" s="11" t="s">
         <v>264</v>
-      </c>
-      <c r="BU40" s="11" t="s">
-        <v>265</v>
       </c>
       <c r="BV40" s="12"/>
       <c r="BW40" s="12"/>
@@ -19599,7 +19598,7 @@
         <v>15</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C41" s="10">
         <v>2021</v>
@@ -19621,7 +19620,7 @@
         <v>3</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K41" s="10">
         <v>4</v>
@@ -19630,7 +19629,7 @@
         <v>3</v>
       </c>
       <c r="M41" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N41" s="10">
         <v>2</v>
@@ -19650,7 +19649,7 @@
         <v>5</v>
       </c>
       <c r="U41" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="V41" s="10">
         <v>1</v>
@@ -19679,22 +19678,22 @@
         <v>2</v>
       </c>
       <c r="AF41" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="AG41" s="11" t="s">
         <v>275</v>
-      </c>
-      <c r="AG41" s="11" t="s">
-        <v>276</v>
       </c>
       <c r="AH41" s="11" t="s">
         <v>84</v>
       </c>
       <c r="AI41" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AJ41" s="10">
         <v>2</v>
       </c>
       <c r="AK41" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AL41" s="10">
         <v>7.5</v>
@@ -19775,7 +19774,7 @@
         <v>8.3800000000000008</v>
       </c>
       <c r="BN41" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="BO41" s="10">
         <v>3</v>
@@ -19789,7 +19788,7 @@
       <c r="BT41" s="12"/>
       <c r="BU41" s="12"/>
       <c r="BV41" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="BW41" s="12"/>
     </row>
@@ -19798,7 +19797,7 @@
         <v>15</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C42" s="10">
         <v>2021</v>
@@ -19820,7 +19819,7 @@
         <v>3</v>
       </c>
       <c r="J42" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K42" s="10">
         <v>4</v>
@@ -19829,7 +19828,7 @@
         <v>3</v>
       </c>
       <c r="M42" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N42" s="10">
         <v>2</v>
@@ -19849,7 +19848,7 @@
         <v>5</v>
       </c>
       <c r="U42" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="V42" s="10">
         <v>1</v>
@@ -19878,22 +19877,22 @@
         <v>2</v>
       </c>
       <c r="AF42" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG42" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AH42" s="11" t="s">
         <v>84</v>
       </c>
       <c r="AI42" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AJ42" s="10">
         <v>2</v>
       </c>
       <c r="AK42" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AL42" s="10">
         <v>7.5</v>
@@ -19974,7 +19973,7 @@
         <v>39.380000000000003</v>
       </c>
       <c r="BN42" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="BO42" s="10">
         <v>3</v>
@@ -19988,7 +19987,7 @@
       <c r="BT42" s="12"/>
       <c r="BU42" s="12"/>
       <c r="BV42" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="BW42" s="12"/>
     </row>
@@ -19997,7 +19996,7 @@
         <v>15</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C43" s="10">
         <v>2021</v>
@@ -20019,7 +20018,7 @@
         <v>3</v>
       </c>
       <c r="J43" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K43" s="10">
         <v>4</v>
@@ -20028,7 +20027,7 @@
         <v>3</v>
       </c>
       <c r="M43" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N43" s="10">
         <v>2</v>
@@ -20048,7 +20047,7 @@
         <v>5</v>
       </c>
       <c r="U43" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="V43" s="10">
         <v>1</v>
@@ -20077,22 +20076,22 @@
         <v>2</v>
       </c>
       <c r="AF43" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG43" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AH43" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AI43" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AJ43" s="10">
         <v>2</v>
       </c>
       <c r="AK43" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AL43" s="10">
         <v>7.5</v>
@@ -20173,7 +20172,7 @@
         <v>7.81</v>
       </c>
       <c r="BN43" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="BO43" s="10">
         <v>3</v>
@@ -20187,7 +20186,7 @@
       <c r="BT43" s="12"/>
       <c r="BU43" s="12"/>
       <c r="BV43" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="BW43" s="12"/>
     </row>
@@ -20196,7 +20195,7 @@
         <v>15</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C44" s="10">
         <v>2021</v>
@@ -20218,7 +20217,7 @@
         <v>3</v>
       </c>
       <c r="J44" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K44" s="10">
         <v>4</v>
@@ -20227,7 +20226,7 @@
         <v>3</v>
       </c>
       <c r="M44" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N44" s="10">
         <v>2</v>
@@ -20247,7 +20246,7 @@
         <v>5</v>
       </c>
       <c r="U44" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="V44" s="10">
         <v>1</v>
@@ -20276,10 +20275,10 @@
         <v>2</v>
       </c>
       <c r="AF44" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG44" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AH44" s="11" t="s">
         <v>84</v>
@@ -20289,7 +20288,7 @@
         <v>1</v>
       </c>
       <c r="AK44" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AL44" s="10">
         <v>7.5</v>
@@ -20370,7 +20369,7 @@
         <v>63.09</v>
       </c>
       <c r="BN44" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="BO44" s="10">
         <v>3</v>
@@ -20384,7 +20383,7 @@
       <c r="BT44" s="12"/>
       <c r="BU44" s="12"/>
       <c r="BV44" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="BW44" s="12"/>
     </row>
@@ -20393,7 +20392,7 @@
         <v>15</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C45" s="10">
         <v>2021</v>
@@ -20415,7 +20414,7 @@
         <v>3</v>
       </c>
       <c r="J45" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K45" s="10">
         <v>4</v>
@@ -20424,7 +20423,7 @@
         <v>3</v>
       </c>
       <c r="M45" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N45" s="10">
         <v>2</v>
@@ -20444,7 +20443,7 @@
         <v>5</v>
       </c>
       <c r="U45" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="V45" s="10">
         <v>1</v>
@@ -20473,20 +20472,20 @@
         <v>2</v>
       </c>
       <c r="AF45" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG45" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AH45" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AI45" s="12"/>
       <c r="AJ45" s="10">
         <v>2</v>
       </c>
       <c r="AK45" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AL45" s="10">
         <v>7.5</v>
@@ -20567,7 +20566,7 @@
         <v>16.36</v>
       </c>
       <c r="BN45" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="BO45" s="10">
         <v>3</v>
@@ -20581,7 +20580,7 @@
       <c r="BT45" s="12"/>
       <c r="BU45" s="12"/>
       <c r="BV45" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="BW45" s="12"/>
     </row>
@@ -20590,7 +20589,7 @@
         <v>15</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C46" s="10">
         <v>2021</v>
@@ -20612,7 +20611,7 @@
         <v>3</v>
       </c>
       <c r="J46" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K46" s="10">
         <v>4</v>
@@ -20621,7 +20620,7 @@
         <v>3</v>
       </c>
       <c r="M46" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N46" s="10">
         <v>2</v>
@@ -20641,7 +20640,7 @@
         <v>5</v>
       </c>
       <c r="U46" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="V46" s="10">
         <v>1</v>
@@ -20670,10 +20669,10 @@
         <v>2</v>
       </c>
       <c r="AF46" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG46" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AH46" s="11" t="s">
         <v>92</v>
@@ -20683,7 +20682,7 @@
         <v>2</v>
       </c>
       <c r="AK46" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AL46" s="10">
         <v>7.5</v>
@@ -20764,7 +20763,7 @@
         <v>511.76</v>
       </c>
       <c r="BN46" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="BO46" s="10">
         <v>3</v>
@@ -20778,7 +20777,7 @@
       <c r="BT46" s="12"/>
       <c r="BU46" s="12"/>
       <c r="BV46" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="BW46" s="12"/>
     </row>
@@ -20787,7 +20786,7 @@
         <v>15</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C47" s="10">
         <v>2021</v>
@@ -20809,7 +20808,7 @@
         <v>3</v>
       </c>
       <c r="J47" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K47" s="10">
         <v>4</v>
@@ -20818,7 +20817,7 @@
         <v>3</v>
       </c>
       <c r="M47" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N47" s="10">
         <v>2</v>
@@ -20838,7 +20837,7 @@
         <v>5</v>
       </c>
       <c r="U47" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="V47" s="10">
         <v>1</v>
@@ -20867,10 +20866,10 @@
         <v>2</v>
       </c>
       <c r="AF47" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG47" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH47" s="11" t="s">
         <v>84</v>
@@ -20880,7 +20879,7 @@
         <v>2</v>
       </c>
       <c r="AK47" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AL47" s="10">
         <v>7.5</v>
@@ -20961,7 +20960,7 @@
         <v>28.64</v>
       </c>
       <c r="BN47" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="BO47" s="10">
         <v>3</v>
@@ -20975,7 +20974,7 @@
       <c r="BT47" s="12"/>
       <c r="BU47" s="12"/>
       <c r="BV47" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="BW47" s="12"/>
     </row>
@@ -20984,7 +20983,7 @@
         <v>16</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C48" s="10">
         <v>2018</v>
@@ -21006,7 +21005,7 @@
         <v>2</v>
       </c>
       <c r="J48" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K48" s="10">
         <v>4</v>
@@ -21015,7 +21014,7 @@
         <v>3</v>
       </c>
       <c r="M48" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N48" s="10">
         <v>2</v>
@@ -21035,7 +21034,7 @@
         <v>5</v>
       </c>
       <c r="U48" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="V48" s="10">
         <v>1</v>
@@ -21064,20 +21063,20 @@
         <v>3</v>
       </c>
       <c r="AF48" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="AG48" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="AG48" s="11" t="s">
-        <v>291</v>
-      </c>
       <c r="AH48" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AI48" s="12"/>
       <c r="AJ48" s="10">
         <v>1</v>
       </c>
       <c r="AK48" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AL48" s="10">
         <v>10</v>
@@ -21140,7 +21139,7 @@
       <c r="BL48" s="12"/>
       <c r="BM48" s="12"/>
       <c r="BN48" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="BO48" s="10">
         <v>1</v>
@@ -21161,7 +21160,7 @@
         <v>16</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C49" s="10">
         <v>2018</v>
@@ -21183,7 +21182,7 @@
         <v>2</v>
       </c>
       <c r="J49" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K49" s="10">
         <v>4</v>
@@ -21192,7 +21191,7 @@
         <v>3</v>
       </c>
       <c r="M49" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N49" s="10">
         <v>2</v>
@@ -21212,7 +21211,7 @@
         <v>5</v>
       </c>
       <c r="U49" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="V49" s="10">
         <v>1</v>
@@ -21244,19 +21243,19 @@
         <v>82</v>
       </c>
       <c r="AG49" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AH49" s="11" t="s">
         <v>84</v>
       </c>
       <c r="AI49" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AJ49" s="10">
         <v>2</v>
       </c>
       <c r="AK49" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AL49" s="10">
         <v>10</v>
@@ -21319,7 +21318,7 @@
       <c r="BL49" s="12"/>
       <c r="BM49" s="12"/>
       <c r="BN49" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="BO49" s="10">
         <v>1</v>
@@ -21340,7 +21339,7 @@
         <v>16</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C50" s="10">
         <v>2018</v>
@@ -21362,7 +21361,7 @@
         <v>2</v>
       </c>
       <c r="J50" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K50" s="10">
         <v>4</v>
@@ -21371,7 +21370,7 @@
         <v>3</v>
       </c>
       <c r="M50" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N50" s="10">
         <v>2</v>
@@ -21391,7 +21390,7 @@
         <v>5</v>
       </c>
       <c r="U50" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="V50" s="10">
         <v>1</v>
@@ -21423,7 +21422,7 @@
         <v>82</v>
       </c>
       <c r="AG50" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AH50" s="11" t="s">
         <v>84</v>
@@ -21433,7 +21432,7 @@
         <v>1</v>
       </c>
       <c r="AK50" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AL50" s="10">
         <v>10</v>
@@ -21496,7 +21495,7 @@
       <c r="BL50" s="12"/>
       <c r="BM50" s="12"/>
       <c r="BN50" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="BO50" s="10">
         <v>1</v>
@@ -21517,7 +21516,7 @@
         <v>16</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C51" s="10">
         <v>2018</v>
@@ -21539,7 +21538,7 @@
         <v>2</v>
       </c>
       <c r="J51" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K51" s="10">
         <v>4</v>
@@ -21548,7 +21547,7 @@
         <v>3</v>
       </c>
       <c r="M51" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N51" s="10">
         <v>2</v>
@@ -21568,7 +21567,7 @@
         <v>5</v>
       </c>
       <c r="U51" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="V51" s="10">
         <v>1</v>
@@ -21600,17 +21599,17 @@
         <v>82</v>
       </c>
       <c r="AG51" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AH51" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AI51" s="12"/>
       <c r="AJ51" s="10">
         <v>1</v>
       </c>
       <c r="AK51" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AL51" s="10">
         <v>10</v>
@@ -21673,7 +21672,7 @@
       <c r="BL51" s="12"/>
       <c r="BM51" s="12"/>
       <c r="BN51" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="BO51" s="10">
         <v>1</v>
@@ -21694,7 +21693,7 @@
         <v>17</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C52" s="10">
         <v>2016</v>
@@ -21706,7 +21705,7 @@
         <v>75</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G52" s="12"/>
       <c r="H52" s="10">
@@ -21716,7 +21715,7 @@
         <v>5</v>
       </c>
       <c r="J52" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K52" s="10">
         <v>4</v>
@@ -21725,7 +21724,7 @@
         <v>3</v>
       </c>
       <c r="M52" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N52" s="10">
         <v>2</v>
@@ -21741,13 +21740,13 @@
         <v>2</v>
       </c>
       <c r="S52" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="T52" s="10">
         <v>5</v>
       </c>
       <c r="U52" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="V52" s="10">
         <v>2</v>
@@ -21776,22 +21775,22 @@
         <v>1</v>
       </c>
       <c r="AF52" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="AG52" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="AH52" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="AI52" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="AG52" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="AH52" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="AI52" s="11" t="s">
-        <v>305</v>
-      </c>
       <c r="AJ52" s="10">
         <v>2</v>
       </c>
       <c r="AK52" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AL52" s="10">
         <v>9</v>
@@ -21854,7 +21853,7 @@
       <c r="BL52" s="12"/>
       <c r="BM52" s="12"/>
       <c r="BN52" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="BO52" s="10">
         <v>3</v>
@@ -21875,7 +21874,7 @@
         <v>17</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C53" s="10">
         <v>2016</v>
@@ -21887,7 +21886,7 @@
         <v>75</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G53" s="12"/>
       <c r="H53" s="10">
@@ -21897,7 +21896,7 @@
         <v>5</v>
       </c>
       <c r="J53" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K53" s="10">
         <v>4</v>
@@ -21906,7 +21905,7 @@
         <v>3</v>
       </c>
       <c r="M53" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N53" s="10">
         <v>2</v>
@@ -21922,13 +21921,13 @@
         <v>2</v>
       </c>
       <c r="S53" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="T53" s="10">
         <v>5</v>
       </c>
       <c r="U53" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="V53" s="10">
         <v>2</v>
@@ -21957,22 +21956,22 @@
         <v>1</v>
       </c>
       <c r="AF53" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AG53" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AH53" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AI53" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AJ53" s="10">
         <v>2</v>
       </c>
       <c r="AK53" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AL53" s="10">
         <v>9</v>
@@ -22035,7 +22034,7 @@
       <c r="BL53" s="12"/>
       <c r="BM53" s="12"/>
       <c r="BN53" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="BO53" s="10">
         <v>3</v>
@@ -22056,7 +22055,7 @@
         <v>18</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C54" s="10">
         <v>2019</v>
@@ -22085,7 +22084,7 @@
         <v>3</v>
       </c>
       <c r="M54" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N54" s="10">
         <v>2</v>
@@ -22105,7 +22104,7 @@
         <v>5</v>
       </c>
       <c r="U54" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="V54" s="10">
         <v>1</v>
@@ -22137,19 +22136,19 @@
         <v>82</v>
       </c>
       <c r="AG54" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AH54" s="11" t="s">
         <v>84</v>
       </c>
       <c r="AI54" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="AJ54" s="10">
+        <v>2</v>
+      </c>
+      <c r="AK54" s="11" t="s">
         <v>310</v>
-      </c>
-      <c r="AJ54" s="10">
-        <v>2</v>
-      </c>
-      <c r="AK54" s="11" t="s">
-        <v>311</v>
       </c>
       <c r="AL54" s="10">
         <v>10</v>
@@ -22204,13 +22203,13 @@
       <c r="BL54" s="12"/>
       <c r="BM54" s="12"/>
       <c r="BN54" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="BO54" s="10">
         <v>3</v>
       </c>
       <c r="BP54" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="BQ54" s="10">
         <v>1</v>
@@ -22227,7 +22226,7 @@
         <v>18</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C55" s="10">
         <v>2019</v>
@@ -22256,7 +22255,7 @@
         <v>3</v>
       </c>
       <c r="M55" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N55" s="10">
         <v>2</v>
@@ -22276,7 +22275,7 @@
         <v>5</v>
       </c>
       <c r="U55" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="V55" s="10">
         <v>1</v>
@@ -22308,17 +22307,17 @@
         <v>82</v>
       </c>
       <c r="AG55" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AH55" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AI55" s="12"/>
       <c r="AJ55" s="10">
         <v>1</v>
       </c>
       <c r="AK55" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AL55" s="10">
         <v>10</v>
@@ -22373,13 +22372,13 @@
       <c r="BL55" s="12"/>
       <c r="BM55" s="12"/>
       <c r="BN55" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="BO55" s="10">
         <v>3</v>
       </c>
       <c r="BP55" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="BQ55" s="10">
         <v>1</v>
@@ -22396,7 +22395,7 @@
         <v>19</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C56" s="10">
         <v>2021</v>
@@ -22425,7 +22424,7 @@
         <v>3</v>
       </c>
       <c r="M56" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N56" s="10">
         <v>1</v>
@@ -22441,13 +22440,13 @@
         <v>2</v>
       </c>
       <c r="S56" s="11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="T56" s="10">
         <v>5</v>
       </c>
       <c r="U56" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="V56" s="10">
         <v>1</v>
@@ -22459,7 +22458,7 @@
         <v>10</v>
       </c>
       <c r="Y56" s="11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Z56" s="10">
         <v>2</v>
@@ -22481,19 +22480,19 @@
         <v>82</v>
       </c>
       <c r="AG56" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AH56" s="11" t="s">
         <v>84</v>
       </c>
       <c r="AI56" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AJ56" s="10">
         <v>2</v>
       </c>
       <c r="AK56" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AL56" s="10">
         <v>16</v>
@@ -22548,7 +22547,7 @@
       <c r="BL56" s="12"/>
       <c r="BM56" s="12"/>
       <c r="BN56" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="BO56" s="10">
         <v>3</v>
@@ -22569,7 +22568,7 @@
         <v>19</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C57" s="10">
         <v>2021</v>
@@ -22598,7 +22597,7 @@
         <v>3</v>
       </c>
       <c r="M57" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N57" s="10">
         <v>1</v>
@@ -22614,13 +22613,13 @@
         <v>2</v>
       </c>
       <c r="S57" s="11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="T57" s="10">
         <v>5</v>
       </c>
       <c r="U57" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="V57" s="10">
         <v>1</v>
@@ -22632,7 +22631,7 @@
         <v>10</v>
       </c>
       <c r="Y57" s="11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Z57" s="10">
         <v>2</v>
@@ -22654,17 +22653,17 @@
         <v>82</v>
       </c>
       <c r="AG57" s="11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AH57" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AI57" s="12"/>
       <c r="AJ57" s="10">
         <v>1</v>
       </c>
       <c r="AK57" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AL57" s="10">
         <v>16</v>
@@ -22719,7 +22718,7 @@
       <c r="BL57" s="12"/>
       <c r="BM57" s="12"/>
       <c r="BN57" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="BO57" s="10">
         <v>3</v>
@@ -22740,7 +22739,7 @@
         <v>19</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C58" s="10">
         <v>2021</v>
@@ -22769,7 +22768,7 @@
         <v>3</v>
       </c>
       <c r="M58" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N58" s="10">
         <v>1</v>
@@ -22785,13 +22784,13 @@
         <v>2</v>
       </c>
       <c r="S58" s="11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="T58" s="10">
         <v>5</v>
       </c>
       <c r="U58" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="V58" s="10">
         <v>1</v>
@@ -22803,7 +22802,7 @@
         <v>10</v>
       </c>
       <c r="Y58" s="11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Z58" s="10">
         <v>2</v>
@@ -22822,20 +22821,20 @@
         <v>3</v>
       </c>
       <c r="AF58" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="AG58" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="AG58" s="11" t="s">
-        <v>321</v>
-      </c>
       <c r="AH58" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AI58" s="12"/>
       <c r="AJ58" s="10">
         <v>2</v>
       </c>
       <c r="AK58" s="11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AL58" s="10">
         <v>16</v>
@@ -22890,7 +22889,7 @@
       <c r="BL58" s="12"/>
       <c r="BM58" s="12"/>
       <c r="BN58" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="BO58" s="10">
         <v>3</v>
@@ -22911,7 +22910,7 @@
         <v>19</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C59" s="10">
         <v>2021</v>
@@ -22940,7 +22939,7 @@
         <v>3</v>
       </c>
       <c r="M59" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N59" s="10">
         <v>1</v>
@@ -22956,13 +22955,13 @@
         <v>2</v>
       </c>
       <c r="S59" s="11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="T59" s="10">
         <v>5</v>
       </c>
       <c r="U59" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="V59" s="10">
         <v>1</v>
@@ -22974,7 +22973,7 @@
         <v>10</v>
       </c>
       <c r="Y59" s="11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Z59" s="10">
         <v>2</v>
@@ -22993,20 +22992,20 @@
         <v>3</v>
       </c>
       <c r="AF59" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AG59" s="11" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AH59" s="31" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AI59" s="12"/>
       <c r="AJ59" s="10">
         <v>1</v>
       </c>
       <c r="AK59" s="11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AL59" s="10">
         <v>16</v>
@@ -23061,7 +23060,7 @@
       <c r="BL59" s="12"/>
       <c r="BM59" s="12"/>
       <c r="BN59" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="BO59" s="10">
         <v>3</v>
@@ -23082,7 +23081,7 @@
         <v>20</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C60" s="10">
         <v>2011</v>
@@ -23094,7 +23093,7 @@
         <v>75</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G60" s="12"/>
       <c r="H60" s="10">
@@ -23111,7 +23110,7 @@
         <v>3</v>
       </c>
       <c r="M60" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N60" s="10">
         <v>2</v>
@@ -23127,13 +23126,13 @@
         <v>3</v>
       </c>
       <c r="S60" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T60" s="10">
         <v>5</v>
       </c>
       <c r="U60" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="V60" s="10">
         <v>1</v>
@@ -23165,7 +23164,7 @@
         <v>82</v>
       </c>
       <c r="AG60" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AH60" s="11" t="s">
         <v>84</v>
@@ -23175,7 +23174,7 @@
         <v>2</v>
       </c>
       <c r="AK60" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AL60" s="10">
         <v>13</v>
@@ -23230,7 +23229,7 @@
       <c r="BL60" s="12"/>
       <c r="BM60" s="12"/>
       <c r="BN60" s="11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="BO60" s="10">
         <v>1</v>
@@ -23251,7 +23250,7 @@
         <v>20</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C61" s="10">
         <v>2011</v>
@@ -23263,7 +23262,7 @@
         <v>75</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G61" s="12"/>
       <c r="H61" s="10">
@@ -23280,7 +23279,7 @@
         <v>3</v>
       </c>
       <c r="M61" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N61" s="10">
         <v>2</v>
@@ -23296,13 +23295,13 @@
         <v>3</v>
       </c>
       <c r="S61" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T61" s="10">
         <v>5</v>
       </c>
       <c r="U61" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="V61" s="10">
         <v>1</v>
@@ -23334,19 +23333,19 @@
         <v>82</v>
       </c>
       <c r="AG61" s="11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AH61" s="11" t="s">
         <v>84</v>
       </c>
       <c r="AI61" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AJ61" s="10">
         <v>1</v>
       </c>
       <c r="AK61" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AL61" s="10">
         <v>13</v>
@@ -23401,7 +23400,7 @@
       <c r="BL61" s="12"/>
       <c r="BM61" s="12"/>
       <c r="BN61" s="11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="BO61" s="10">
         <v>1</v>
@@ -23422,7 +23421,7 @@
         <v>21</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C62" s="10">
         <v>2011</v>
@@ -23434,7 +23433,7 @@
         <v>75</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G62" s="12"/>
       <c r="H62" s="10">
@@ -23451,7 +23450,7 @@
         <v>3</v>
       </c>
       <c r="M62" s="11" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="N62" s="10">
         <v>2</v>
@@ -23471,7 +23470,7 @@
         <v>5</v>
       </c>
       <c r="U62" s="11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="V62" s="10">
         <v>1</v>
@@ -23503,19 +23502,19 @@
         <v>82</v>
       </c>
       <c r="AG62" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AH62" s="11" t="s">
         <v>84</v>
       </c>
       <c r="AI62" s="11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AJ62" s="10">
         <v>2</v>
       </c>
       <c r="AK62" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AL62" s="10">
         <v>5</v>
@@ -23578,7 +23577,7 @@
       <c r="BL62" s="12"/>
       <c r="BM62" s="12"/>
       <c r="BN62" s="11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="BO62" s="10">
         <v>3</v>
@@ -23588,7 +23587,7 @@
         <v>3</v>
       </c>
       <c r="BR62" s="11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="BS62" s="12"/>
       <c r="BT62" s="12"/>
@@ -23601,7 +23600,7 @@
         <v>21</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C63" s="10">
         <v>2011</v>
@@ -23613,7 +23612,7 @@
         <v>75</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G63" s="12"/>
       <c r="H63" s="10">
@@ -23630,7 +23629,7 @@
         <v>3</v>
       </c>
       <c r="M63" s="11" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="N63" s="10">
         <v>2</v>
@@ -23650,7 +23649,7 @@
         <v>5</v>
       </c>
       <c r="U63" s="11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="V63" s="10">
         <v>1</v>
@@ -23682,17 +23681,17 @@
         <v>82</v>
       </c>
       <c r="AG63" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AH63" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AI63" s="12"/>
       <c r="AJ63" s="10">
         <v>1</v>
       </c>
       <c r="AK63" s="11" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AL63" s="10">
         <v>5</v>
@@ -23755,7 +23754,7 @@
       <c r="BL63" s="12"/>
       <c r="BM63" s="12"/>
       <c r="BN63" s="11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="BO63" s="10">
         <v>3</v>
@@ -23765,7 +23764,7 @@
         <v>3</v>
       </c>
       <c r="BR63" s="11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="BS63" s="12"/>
       <c r="BT63" s="12"/>
@@ -23778,7 +23777,7 @@
         <v>22</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C64" s="10">
         <v>2019</v>
@@ -23807,7 +23806,7 @@
         <v>3</v>
       </c>
       <c r="M64" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N64" s="10">
         <v>2</v>
@@ -23816,22 +23815,22 @@
         <v>2</v>
       </c>
       <c r="P64" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q64" s="10">
+        <v>3</v>
+      </c>
+      <c r="R64" s="10">
+        <v>2</v>
+      </c>
+      <c r="S64" s="11" t="s">
         <v>336</v>
-      </c>
-      <c r="Q64" s="10">
-        <v>3</v>
-      </c>
-      <c r="R64" s="10">
-        <v>2</v>
-      </c>
-      <c r="S64" s="11" t="s">
-        <v>337</v>
       </c>
       <c r="T64" s="10">
         <v>5</v>
       </c>
       <c r="U64" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="V64" s="10">
         <v>1</v>
@@ -23847,37 +23846,37 @@
         <v>1</v>
       </c>
       <c r="AA64" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="AB64" s="10">
+        <v>1</v>
+      </c>
+      <c r="AC64" s="10">
+        <v>3</v>
+      </c>
+      <c r="AD64" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE64" s="10">
+        <v>3</v>
+      </c>
+      <c r="AF64" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="AG64" s="38" t="s">
         <v>339</v>
       </c>
-      <c r="AB64" s="10">
-        <v>1</v>
-      </c>
-      <c r="AC64" s="10">
-        <v>3</v>
-      </c>
-      <c r="AD64" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE64" s="10">
-        <v>3</v>
-      </c>
-      <c r="AF64" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="AG64" s="38" t="s">
+      <c r="AH64" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="AI64" s="37" t="s">
         <v>340</v>
       </c>
-      <c r="AH64" s="38" t="s">
-        <v>220</v>
-      </c>
-      <c r="AI64" s="37" t="s">
-        <v>341</v>
-      </c>
       <c r="AJ64" s="36">
         <v>1</v>
       </c>
       <c r="AK64" s="37" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AL64" s="10">
         <v>7</v>
@@ -23940,7 +23939,7 @@
       <c r="BL64" s="12"/>
       <c r="BM64" s="12"/>
       <c r="BN64" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="BO64" s="10">
         <v>3</v>
@@ -23950,7 +23949,7 @@
         <v>3</v>
       </c>
       <c r="BR64" s="11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="BS64" s="12"/>
       <c r="BT64" s="12"/>
@@ -23963,7 +23962,7 @@
         <v>22</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C65" s="10">
         <v>2019</v>
@@ -23992,7 +23991,7 @@
         <v>3</v>
       </c>
       <c r="M65" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N65" s="10">
         <v>2</v>
@@ -24001,22 +24000,22 @@
         <v>2</v>
       </c>
       <c r="P65" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q65" s="10">
+        <v>3</v>
+      </c>
+      <c r="R65" s="10">
+        <v>2</v>
+      </c>
+      <c r="S65" s="11" t="s">
         <v>336</v>
-      </c>
-      <c r="Q65" s="10">
-        <v>3</v>
-      </c>
-      <c r="R65" s="10">
-        <v>2</v>
-      </c>
-      <c r="S65" s="11" t="s">
-        <v>337</v>
       </c>
       <c r="T65" s="10">
         <v>5</v>
       </c>
       <c r="U65" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="V65" s="10">
         <v>1</v>
@@ -24032,7 +24031,7 @@
         <v>1</v>
       </c>
       <c r="AA65" s="11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AB65" s="10">
         <v>1</v>
@@ -24047,22 +24046,22 @@
         <v>3</v>
       </c>
       <c r="AF65" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG65" s="38" t="s">
+        <v>339</v>
+      </c>
+      <c r="AH65" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="AI65" s="37" t="s">
         <v>340</v>
       </c>
-      <c r="AH65" s="38" t="s">
-        <v>220</v>
-      </c>
-      <c r="AI65" s="37" t="s">
-        <v>341</v>
-      </c>
       <c r="AJ65" s="36">
         <v>1</v>
       </c>
       <c r="AK65" s="37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AL65" s="10">
         <v>7</v>
@@ -24125,7 +24124,7 @@
       <c r="BL65" s="12"/>
       <c r="BM65" s="12"/>
       <c r="BN65" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="BO65" s="10">
         <v>3</v>
@@ -24135,7 +24134,7 @@
         <v>3</v>
       </c>
       <c r="BR65" s="11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="BS65" s="12"/>
       <c r="BT65" s="12"/>
@@ -24148,7 +24147,7 @@
         <v>22</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C66" s="10">
         <v>2019</v>
@@ -24177,7 +24176,7 @@
         <v>3</v>
       </c>
       <c r="M66" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N66" s="10">
         <v>2</v>
@@ -24186,7 +24185,7 @@
         <v>2</v>
       </c>
       <c r="P66" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Q66" s="10">
         <v>3</v>
@@ -24195,13 +24194,13 @@
         <v>2</v>
       </c>
       <c r="S66" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="T66" s="10">
         <v>5</v>
       </c>
       <c r="U66" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="V66" s="10">
         <v>1</v>
@@ -24217,37 +24216,37 @@
         <v>1</v>
       </c>
       <c r="AA66" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="AB66" s="10">
+        <v>1</v>
+      </c>
+      <c r="AC66" s="10">
+        <v>3</v>
+      </c>
+      <c r="AD66" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE66" s="10">
+        <v>3</v>
+      </c>
+      <c r="AF66" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="AG66" s="38" t="s">
         <v>339</v>
       </c>
-      <c r="AB66" s="10">
-        <v>1</v>
-      </c>
-      <c r="AC66" s="10">
-        <v>3</v>
-      </c>
-      <c r="AD66" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE66" s="10">
-        <v>3</v>
-      </c>
-      <c r="AF66" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="AG66" s="38" t="s">
+      <c r="AH66" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="AI66" s="37" t="s">
         <v>340</v>
       </c>
-      <c r="AH66" s="38" t="s">
-        <v>220</v>
-      </c>
-      <c r="AI66" s="37" t="s">
-        <v>341</v>
-      </c>
       <c r="AJ66" s="36">
         <v>1</v>
       </c>
       <c r="AK66" s="37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AL66" s="10">
         <v>7</v>
@@ -24310,7 +24309,7 @@
       <c r="BL66" s="12"/>
       <c r="BM66" s="12"/>
       <c r="BN66" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="BO66" s="10">
         <v>3</v>
@@ -24320,7 +24319,7 @@
         <v>3</v>
       </c>
       <c r="BR66" s="11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="BS66" s="12"/>
       <c r="BT66" s="12"/>
@@ -24333,7 +24332,7 @@
         <v>22</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C67" s="10">
         <v>2019</v>
@@ -24362,7 +24361,7 @@
         <v>3</v>
       </c>
       <c r="M67" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N67" s="10">
         <v>2</v>
@@ -24371,7 +24370,7 @@
         <v>2</v>
       </c>
       <c r="P67" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Q67" s="10">
         <v>3</v>
@@ -24380,13 +24379,13 @@
         <v>2</v>
       </c>
       <c r="S67" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="T67" s="10">
         <v>5</v>
       </c>
       <c r="U67" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="V67" s="10">
         <v>1</v>
@@ -24402,7 +24401,7 @@
         <v>1</v>
       </c>
       <c r="AA67" s="11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AB67" s="10">
         <v>1</v>
@@ -24417,22 +24416,22 @@
         <v>3</v>
       </c>
       <c r="AF67" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG67" s="38" t="s">
+        <v>339</v>
+      </c>
+      <c r="AH67" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="AI67" s="37" t="s">
         <v>340</v>
       </c>
-      <c r="AH67" s="38" t="s">
-        <v>220</v>
-      </c>
-      <c r="AI67" s="37" t="s">
-        <v>341</v>
-      </c>
       <c r="AJ67" s="36">
         <v>1</v>
       </c>
       <c r="AK67" s="37" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AL67" s="10">
         <v>7</v>
@@ -24495,7 +24494,7 @@
       <c r="BL67" s="12"/>
       <c r="BM67" s="12"/>
       <c r="BN67" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="BO67" s="10">
         <v>3</v>
@@ -24505,7 +24504,7 @@
         <v>3</v>
       </c>
       <c r="BR67" s="11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="BS67" s="12"/>
       <c r="BT67" s="12"/>
@@ -24518,7 +24517,7 @@
         <v>22</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C68" s="10">
         <v>2019</v>
@@ -24547,7 +24546,7 @@
         <v>3</v>
       </c>
       <c r="M68" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N68" s="10">
         <v>2</v>
@@ -24556,22 +24555,22 @@
         <v>2</v>
       </c>
       <c r="P68" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q68" s="10">
+        <v>3</v>
+      </c>
+      <c r="R68" s="10">
+        <v>2</v>
+      </c>
+      <c r="S68" s="11" t="s">
         <v>336</v>
-      </c>
-      <c r="Q68" s="10">
-        <v>3</v>
-      </c>
-      <c r="R68" s="10">
-        <v>2</v>
-      </c>
-      <c r="S68" s="11" t="s">
-        <v>337</v>
       </c>
       <c r="T68" s="10">
         <v>5</v>
       </c>
       <c r="U68" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="V68" s="10">
         <v>1</v>
@@ -24587,7 +24586,7 @@
         <v>1</v>
       </c>
       <c r="AA68" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AB68" s="10">
         <v>1</v>
@@ -24602,20 +24601,20 @@
         <v>2</v>
       </c>
       <c r="AF68" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AG68" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AH68" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AI68" s="12"/>
       <c r="AJ68" s="10">
         <v>1</v>
       </c>
       <c r="AK68" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AL68" s="10">
         <v>7</v>
@@ -24678,7 +24677,7 @@
       <c r="BL68" s="12"/>
       <c r="BM68" s="12"/>
       <c r="BN68" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="BO68" s="10">
         <v>3</v>
@@ -24688,7 +24687,7 @@
         <v>3</v>
       </c>
       <c r="BR68" s="11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="BS68" s="12"/>
       <c r="BT68" s="12"/>
@@ -24701,7 +24700,7 @@
         <v>22</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C69" s="10">
         <v>2019</v>
@@ -24730,7 +24729,7 @@
         <v>3</v>
       </c>
       <c r="M69" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N69" s="10">
         <v>2</v>
@@ -24739,22 +24738,22 @@
         <v>2</v>
       </c>
       <c r="P69" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q69" s="10">
+        <v>3</v>
+      </c>
+      <c r="R69" s="10">
+        <v>2</v>
+      </c>
+      <c r="S69" s="11" t="s">
         <v>336</v>
-      </c>
-      <c r="Q69" s="10">
-        <v>3</v>
-      </c>
-      <c r="R69" s="10">
-        <v>2</v>
-      </c>
-      <c r="S69" s="11" t="s">
-        <v>337</v>
       </c>
       <c r="T69" s="10">
         <v>5</v>
       </c>
       <c r="U69" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="V69" s="10">
         <v>1</v>
@@ -24770,7 +24769,7 @@
         <v>1</v>
       </c>
       <c r="AA69" s="11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AB69" s="10">
         <v>1</v>
@@ -24785,20 +24784,20 @@
         <v>2</v>
       </c>
       <c r="AF69" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AG69" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AH69" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AI69" s="12"/>
       <c r="AJ69" s="10">
         <v>1</v>
       </c>
       <c r="AK69" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AL69" s="10">
         <v>7</v>
@@ -24861,7 +24860,7 @@
       <c r="BL69" s="12"/>
       <c r="BM69" s="12"/>
       <c r="BN69" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="BO69" s="10">
         <v>3</v>
@@ -24871,7 +24870,7 @@
         <v>3</v>
       </c>
       <c r="BR69" s="11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="BS69" s="12"/>
       <c r="BT69" s="12"/>
@@ -24884,7 +24883,7 @@
         <v>22</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C70" s="10">
         <v>2019</v>
@@ -24913,7 +24912,7 @@
         <v>3</v>
       </c>
       <c r="M70" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N70" s="10">
         <v>2</v>
@@ -24922,7 +24921,7 @@
         <v>2</v>
       </c>
       <c r="P70" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Q70" s="10">
         <v>3</v>
@@ -24931,13 +24930,13 @@
         <v>2</v>
       </c>
       <c r="S70" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="T70" s="10">
         <v>5</v>
       </c>
       <c r="U70" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="V70" s="10">
         <v>1</v>
@@ -24953,7 +24952,7 @@
         <v>1</v>
       </c>
       <c r="AA70" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AB70" s="10">
         <v>1</v>
@@ -24968,20 +24967,20 @@
         <v>2</v>
       </c>
       <c r="AF70" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AG70" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AH70" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AI70" s="12"/>
       <c r="AJ70" s="10">
         <v>1</v>
       </c>
       <c r="AK70" s="11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AL70" s="10">
         <v>7</v>
@@ -25044,7 +25043,7 @@
       <c r="BL70" s="12"/>
       <c r="BM70" s="12"/>
       <c r="BN70" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="BO70" s="10">
         <v>3</v>
@@ -25054,7 +25053,7 @@
         <v>3</v>
       </c>
       <c r="BR70" s="11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="BS70" s="12"/>
       <c r="BT70" s="12"/>
@@ -25067,7 +25066,7 @@
         <v>22</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C71" s="10">
         <v>2019</v>
@@ -25096,7 +25095,7 @@
         <v>3</v>
       </c>
       <c r="M71" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N71" s="10">
         <v>2</v>
@@ -25105,7 +25104,7 @@
         <v>2</v>
       </c>
       <c r="P71" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Q71" s="10">
         <v>3</v>
@@ -25114,13 +25113,13 @@
         <v>2</v>
       </c>
       <c r="S71" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="T71" s="10">
         <v>5</v>
       </c>
       <c r="U71" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="V71" s="10">
         <v>1</v>
@@ -25136,7 +25135,7 @@
         <v>1</v>
       </c>
       <c r="AA71" s="11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AB71" s="10">
         <v>1</v>
@@ -25151,20 +25150,20 @@
         <v>2</v>
       </c>
       <c r="AF71" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AG71" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AH71" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AI71" s="12"/>
       <c r="AJ71" s="10">
         <v>1</v>
       </c>
       <c r="AK71" s="11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AL71" s="10">
         <v>7</v>
@@ -25227,7 +25226,7 @@
       <c r="BL71" s="12"/>
       <c r="BM71" s="12"/>
       <c r="BN71" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="BO71" s="10">
         <v>3</v>
@@ -25237,7 +25236,7 @@
         <v>3</v>
       </c>
       <c r="BR71" s="11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="BS71" s="12"/>
       <c r="BT71" s="12"/>
@@ -25250,7 +25249,7 @@
         <v>23</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C72" s="10">
         <v>2020</v>
@@ -25262,7 +25261,7 @@
         <v>75</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G72" s="12"/>
       <c r="H72" s="10">
@@ -25279,31 +25278,31 @@
         <v>3</v>
       </c>
       <c r="M72" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="N72" s="10">
+        <v>2</v>
+      </c>
+      <c r="O72" s="10">
+        <v>3</v>
+      </c>
+      <c r="P72" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="N72" s="10">
-        <v>2</v>
-      </c>
-      <c r="O72" s="10">
-        <v>3</v>
-      </c>
-      <c r="P72" s="11" t="s">
+      <c r="Q72" s="10">
+        <v>2</v>
+      </c>
+      <c r="R72" s="10">
+        <v>3</v>
+      </c>
+      <c r="S72" s="11" t="s">
         <v>350</v>
-      </c>
-      <c r="Q72" s="10">
-        <v>2</v>
-      </c>
-      <c r="R72" s="10">
-        <v>3</v>
-      </c>
-      <c r="S72" s="11" t="s">
-        <v>351</v>
       </c>
       <c r="T72" s="10">
         <v>5</v>
       </c>
       <c r="U72" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="V72" s="10">
         <v>2</v>
@@ -25315,7 +25314,7 @@
         <v>10</v>
       </c>
       <c r="Y72" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="Z72" s="10">
         <v>1</v>
@@ -25334,22 +25333,22 @@
         <v>2</v>
       </c>
       <c r="AF72" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AG72" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AH72" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AI72" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AJ72" s="10">
         <v>1</v>
       </c>
       <c r="AK72" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AL72" s="10">
         <v>12</v>
@@ -25412,7 +25411,7 @@
       <c r="BL72" s="12"/>
       <c r="BM72" s="12"/>
       <c r="BN72" s="11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="BO72" s="10">
         <v>1</v>
@@ -25433,7 +25432,7 @@
         <v>23</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C73" s="10">
         <v>2020</v>
@@ -25445,7 +25444,7 @@
         <v>75</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G73" s="12"/>
       <c r="H73" s="10">
@@ -25462,31 +25461,31 @@
         <v>3</v>
       </c>
       <c r="M73" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="N73" s="10">
+        <v>2</v>
+      </c>
+      <c r="O73" s="10">
+        <v>3</v>
+      </c>
+      <c r="P73" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="N73" s="10">
-        <v>2</v>
-      </c>
-      <c r="O73" s="10">
-        <v>3</v>
-      </c>
-      <c r="P73" s="11" t="s">
+      <c r="Q73" s="10">
+        <v>2</v>
+      </c>
+      <c r="R73" s="10">
+        <v>3</v>
+      </c>
+      <c r="S73" s="11" t="s">
         <v>350</v>
-      </c>
-      <c r="Q73" s="10">
-        <v>2</v>
-      </c>
-      <c r="R73" s="10">
-        <v>3</v>
-      </c>
-      <c r="S73" s="11" t="s">
-        <v>351</v>
       </c>
       <c r="T73" s="10">
         <v>5</v>
       </c>
       <c r="U73" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="V73" s="10">
         <v>2</v>
@@ -25498,7 +25497,7 @@
         <v>10</v>
       </c>
       <c r="Y73" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="Z73" s="10">
         <v>1</v>
@@ -25517,22 +25516,22 @@
         <v>2</v>
       </c>
       <c r="AF73" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AG73" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AH73" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AI73" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AJ73" s="10">
         <v>1</v>
       </c>
       <c r="AK73" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AL73" s="10">
         <v>12</v>
@@ -25595,7 +25594,7 @@
       <c r="BL73" s="12"/>
       <c r="BM73" s="12"/>
       <c r="BN73" s="11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="BO73" s="10">
         <v>1</v>
@@ -25616,7 +25615,7 @@
         <v>24</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C74" s="10">
         <v>2017</v>
@@ -25645,7 +25644,7 @@
         <v>4</v>
       </c>
       <c r="M74" s="11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N74" s="10">
         <v>4</v>
@@ -25654,7 +25653,7 @@
         <v>4</v>
       </c>
       <c r="P74" s="11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="Q74" s="10">
         <v>2</v>
@@ -25667,7 +25666,7 @@
         <v>5</v>
       </c>
       <c r="U74" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="V74" s="10">
         <v>2</v>
@@ -25696,22 +25695,22 @@
         <v>1</v>
       </c>
       <c r="AF74" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="AG74" s="11" t="s">
         <v>359</v>
       </c>
-      <c r="AG74" s="11" t="s">
+      <c r="AH74" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="AI74" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="AH74" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="AI74" s="11" t="s">
-        <v>361</v>
-      </c>
       <c r="AJ74" s="10">
         <v>2</v>
       </c>
       <c r="AK74" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AL74" s="10">
         <v>15</v>
@@ -25774,7 +25773,7 @@
       <c r="BL74" s="12"/>
       <c r="BM74" s="12"/>
       <c r="BN74" s="11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="BO74" s="10">
         <v>3</v>
@@ -25788,7 +25787,7 @@
       <c r="BT74" s="12"/>
       <c r="BU74" s="12"/>
       <c r="BV74" s="11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="BW74" s="12"/>
     </row>
@@ -25797,7 +25796,7 @@
         <v>24</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C75" s="10">
         <v>2017</v>
@@ -25826,7 +25825,7 @@
         <v>4</v>
       </c>
       <c r="M75" s="11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N75" s="10">
         <v>4</v>
@@ -25835,7 +25834,7 @@
         <v>4</v>
       </c>
       <c r="P75" s="11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="Q75" s="10">
         <v>2</v>
@@ -25848,7 +25847,7 @@
         <v>5</v>
       </c>
       <c r="U75" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="V75" s="10">
         <v>2</v>
@@ -25877,22 +25876,22 @@
         <v>1</v>
       </c>
       <c r="AF75" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="AG75" s="11" t="s">
         <v>359</v>
       </c>
-      <c r="AG75" s="11" t="s">
+      <c r="AH75" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="AI75" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="AH75" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="AI75" s="11" t="s">
-        <v>361</v>
-      </c>
       <c r="AJ75" s="10">
         <v>2</v>
       </c>
       <c r="AK75" s="11" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AL75" s="10">
         <v>15</v>
@@ -25955,7 +25954,7 @@
       <c r="BL75" s="12"/>
       <c r="BM75" s="12"/>
       <c r="BN75" s="11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="BO75" s="10">
         <v>3</v>
@@ -25976,7 +25975,7 @@
         <v>25</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C76" s="10">
         <v>2015</v>
@@ -26005,7 +26004,7 @@
         <v>3</v>
       </c>
       <c r="M76" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N76" s="10">
         <v>2</v>
@@ -26025,7 +26024,7 @@
         <v>5</v>
       </c>
       <c r="U76" s="11" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="V76" s="10">
         <v>1</v>
@@ -26054,20 +26053,20 @@
         <v>1</v>
       </c>
       <c r="AF76" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="AG76" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="AG76" s="11" t="s">
-        <v>368</v>
-      </c>
       <c r="AH76" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AI76" s="12"/>
       <c r="AJ76" s="10">
         <v>1</v>
       </c>
       <c r="AK76" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AL76" s="10">
         <v>8</v>
@@ -26130,7 +26129,7 @@
       <c r="BL76" s="12"/>
       <c r="BM76" s="12"/>
       <c r="BN76" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="BO76" s="10">
         <v>3</v>
@@ -26151,7 +26150,7 @@
         <v>25</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C77" s="10">
         <v>2015</v>
@@ -26180,7 +26179,7 @@
         <v>3</v>
       </c>
       <c r="M77" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N77" s="10">
         <v>2</v>
@@ -26200,7 +26199,7 @@
         <v>5</v>
       </c>
       <c r="U77" s="11" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="V77" s="10">
         <v>1</v>
@@ -26229,10 +26228,10 @@
         <v>1</v>
       </c>
       <c r="AF77" s="11" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AG77" s="11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AH77" s="11" t="s">
         <v>84</v>
@@ -26242,7 +26241,7 @@
         <v>2</v>
       </c>
       <c r="AK77" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AL77" s="10">
         <v>8</v>
@@ -26305,7 +26304,7 @@
       <c r="BL77" s="12"/>
       <c r="BM77" s="12"/>
       <c r="BN77" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="BO77" s="10">
         <v>3</v>
@@ -26326,7 +26325,7 @@
         <v>25</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C78" s="10">
         <v>2015</v>
@@ -26355,7 +26354,7 @@
         <v>3</v>
       </c>
       <c r="M78" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N78" s="10">
         <v>2</v>
@@ -26375,7 +26374,7 @@
         <v>5</v>
       </c>
       <c r="U78" s="11" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="V78" s="10">
         <v>1</v>
@@ -26404,22 +26403,22 @@
         <v>1</v>
       </c>
       <c r="AF78" s="11" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AG78" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="AH78" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI78" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="AH78" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI78" s="11" t="s">
-        <v>372</v>
-      </c>
       <c r="AJ78" s="10">
         <v>1</v>
       </c>
       <c r="AK78" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AL78" s="10">
         <v>8</v>
@@ -26482,7 +26481,7 @@
       <c r="BL78" s="12"/>
       <c r="BM78" s="12"/>
       <c r="BN78" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="BO78" s="10">
         <v>3</v>
@@ -26503,7 +26502,7 @@
         <v>25</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C79" s="10">
         <v>2015</v>
@@ -26532,7 +26531,7 @@
         <v>3</v>
       </c>
       <c r="M79" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N79" s="10">
         <v>2</v>
@@ -26552,7 +26551,7 @@
         <v>5</v>
       </c>
       <c r="U79" s="11" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="V79" s="10">
         <v>1</v>
@@ -26581,22 +26580,22 @@
         <v>1</v>
       </c>
       <c r="AF79" s="11" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AG79" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="AH79" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI79" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="AH79" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI79" s="11" t="s">
+      <c r="AJ79" s="10">
+        <v>1</v>
+      </c>
+      <c r="AK79" s="11" t="s">
         <v>372</v>
-      </c>
-      <c r="AJ79" s="10">
-        <v>1</v>
-      </c>
-      <c r="AK79" s="11" t="s">
-        <v>373</v>
       </c>
       <c r="AL79" s="10">
         <v>8</v>
@@ -26659,7 +26658,7 @@
       <c r="BL79" s="12"/>
       <c r="BM79" s="12"/>
       <c r="BN79" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="BO79" s="10">
         <v>3</v>
@@ -26680,7 +26679,7 @@
         <v>25</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C80" s="10">
         <v>2015</v>
@@ -26709,7 +26708,7 @@
         <v>3</v>
       </c>
       <c r="M80" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N80" s="10">
         <v>2</v>
@@ -26729,7 +26728,7 @@
         <v>5</v>
       </c>
       <c r="U80" s="11" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="V80" s="10">
         <v>1</v>
@@ -26758,22 +26757,22 @@
         <v>1</v>
       </c>
       <c r="AF80" s="11" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AG80" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="AH80" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI80" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="AH80" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI80" s="11" t="s">
-        <v>372</v>
-      </c>
       <c r="AJ80" s="10">
         <v>1</v>
       </c>
       <c r="AK80" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AL80" s="10">
         <v>8</v>
@@ -26836,7 +26835,7 @@
       <c r="BL80" s="12"/>
       <c r="BM80" s="12"/>
       <c r="BN80" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="BO80" s="10">
         <v>3</v>
@@ -26857,7 +26856,7 @@
         <v>25</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C81" s="10">
         <v>2015</v>
@@ -26886,7 +26885,7 @@
         <v>3</v>
       </c>
       <c r="M81" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N81" s="10">
         <v>2</v>
@@ -26906,7 +26905,7 @@
         <v>5</v>
       </c>
       <c r="U81" s="11" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="V81" s="10">
         <v>1</v>
@@ -26935,22 +26934,22 @@
         <v>1</v>
       </c>
       <c r="AF81" s="11" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AG81" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="AH81" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI81" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="AH81" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI81" s="11" t="s">
-        <v>372</v>
-      </c>
       <c r="AJ81" s="10">
         <v>1</v>
       </c>
       <c r="AK81" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AL81" s="10">
         <v>8</v>
@@ -27013,7 +27012,7 @@
       <c r="BL81" s="12"/>
       <c r="BM81" s="12"/>
       <c r="BN81" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="BO81" s="10">
         <v>3</v>
@@ -27034,7 +27033,7 @@
         <v>26</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C82" s="10">
         <v>2009</v>
@@ -27081,7 +27080,7 @@
         <v>2</v>
       </c>
       <c r="U82" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="V82" s="10">
         <v>2</v>
@@ -27093,7 +27092,7 @@
         <v>5</v>
       </c>
       <c r="Y82" s="11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Z82" s="10">
         <v>2</v>
@@ -27112,22 +27111,22 @@
         <v>1</v>
       </c>
       <c r="AF82" s="11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AG82" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="AH82" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI82" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="AH82" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI82" s="11" t="s">
+      <c r="AJ82" s="10">
+        <v>1</v>
+      </c>
+      <c r="AK82" s="11" t="s">
         <v>379</v>
-      </c>
-      <c r="AJ82" s="10">
-        <v>1</v>
-      </c>
-      <c r="AK82" s="11" t="s">
-        <v>380</v>
       </c>
       <c r="AL82" s="10">
         <v>12</v>
@@ -27190,7 +27189,7 @@
       <c r="BL82" s="12"/>
       <c r="BM82" s="12"/>
       <c r="BN82" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BO82" s="10">
         <v>3</v>
@@ -27211,7 +27210,7 @@
         <v>26</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C83" s="10">
         <v>2009</v>
@@ -27258,7 +27257,7 @@
         <v>2</v>
       </c>
       <c r="U83" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="V83" s="10">
         <v>2</v>
@@ -27270,7 +27269,7 @@
         <v>5</v>
       </c>
       <c r="Y83" s="11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Z83" s="10">
         <v>2</v>
@@ -27289,22 +27288,22 @@
         <v>1</v>
       </c>
       <c r="AF83" s="11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AG83" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AH83" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AI83" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AJ83" s="10">
         <v>2</v>
       </c>
       <c r="AK83" s="11" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AL83" s="10">
         <v>12</v>
@@ -27367,7 +27366,7 @@
       <c r="BL83" s="12"/>
       <c r="BM83" s="12"/>
       <c r="BN83" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BO83" s="10">
         <v>3</v>
@@ -27388,7 +27387,7 @@
         <v>26</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C84" s="10">
         <v>2009</v>
@@ -27435,7 +27434,7 @@
         <v>2</v>
       </c>
       <c r="U84" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="V84" s="10">
         <v>2</v>
@@ -27447,7 +27446,7 @@
         <v>5</v>
       </c>
       <c r="Y84" s="11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Z84" s="10">
         <v>2</v>
@@ -27466,20 +27465,20 @@
         <v>1</v>
       </c>
       <c r="AF84" s="11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AG84" s="11" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AH84" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AI84" s="12"/>
       <c r="AJ84" s="10">
         <v>1</v>
       </c>
       <c r="AK84" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AL84" s="10">
         <v>12</v>
@@ -27542,7 +27541,7 @@
       <c r="BL84" s="12"/>
       <c r="BM84" s="12"/>
       <c r="BN84" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BO84" s="10">
         <v>3</v>
@@ -27563,7 +27562,7 @@
         <v>26</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C85" s="10">
         <v>2009</v>
@@ -27610,7 +27609,7 @@
         <v>2</v>
       </c>
       <c r="U85" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="V85" s="10">
         <v>2</v>
@@ -27622,7 +27621,7 @@
         <v>5</v>
       </c>
       <c r="Y85" s="11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Z85" s="10">
         <v>2</v>
@@ -27641,20 +27640,20 @@
         <v>1</v>
       </c>
       <c r="AF85" s="11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AG85" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AH85" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AI85" s="12"/>
       <c r="AJ85" s="10">
         <v>2</v>
       </c>
       <c r="AK85" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AL85" s="10">
         <v>12</v>
@@ -27717,7 +27716,7 @@
       <c r="BL85" s="12"/>
       <c r="BM85" s="12"/>
       <c r="BN85" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BO85" s="10">
         <v>3</v>
@@ -27738,7 +27737,7 @@
         <v>27</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C86" s="10">
         <v>2013</v>
@@ -27767,7 +27766,7 @@
         <v>3</v>
       </c>
       <c r="M86" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N86" s="10">
         <v>2</v>
@@ -27783,13 +27782,13 @@
         <v>3</v>
       </c>
       <c r="S86" s="11" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="T86" s="10">
         <v>5</v>
       </c>
       <c r="U86" s="11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="V86" s="10">
         <v>1</v>
@@ -27818,22 +27817,22 @@
         <v>3</v>
       </c>
       <c r="AF86" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AG86" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="AH86" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI86" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="AH86" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI86" s="11" t="s">
-        <v>388</v>
-      </c>
       <c r="AJ86" s="10">
         <v>1</v>
       </c>
       <c r="AK86" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AL86" s="10">
         <v>11</v>
@@ -27896,7 +27895,7 @@
       <c r="BL86" s="12"/>
       <c r="BM86" s="12"/>
       <c r="BN86" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="BO86" s="10">
         <v>3</v>
@@ -27917,7 +27916,7 @@
         <v>27</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C87" s="10">
         <v>2013</v>
@@ -27946,7 +27945,7 @@
         <v>3</v>
       </c>
       <c r="M87" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N87" s="10">
         <v>2</v>
@@ -27962,13 +27961,13 @@
         <v>3</v>
       </c>
       <c r="S87" s="11" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="T87" s="10">
         <v>5</v>
       </c>
       <c r="U87" s="11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="V87" s="10">
         <v>1</v>
@@ -27997,10 +27996,10 @@
         <v>3</v>
       </c>
       <c r="AF87" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AG87" s="11" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AH87" s="11" t="s">
         <v>84</v>
@@ -28010,7 +28009,7 @@
         <v>2</v>
       </c>
       <c r="AK87" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AL87" s="10">
         <v>11</v>
@@ -28073,7 +28072,7 @@
       <c r="BL87" s="12"/>
       <c r="BM87" s="12"/>
       <c r="BN87" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="BO87" s="10">
         <v>3</v>
@@ -28094,7 +28093,7 @@
         <v>27</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C88" s="10">
         <v>2013</v>
@@ -28123,7 +28122,7 @@
         <v>3</v>
       </c>
       <c r="M88" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N88" s="10">
         <v>2</v>
@@ -28139,13 +28138,13 @@
         <v>3</v>
       </c>
       <c r="S88" s="11" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="T88" s="10">
         <v>5</v>
       </c>
       <c r="U88" s="11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="V88" s="10">
         <v>1</v>
@@ -28174,10 +28173,10 @@
         <v>2</v>
       </c>
       <c r="AF88" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AG88" s="11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AH88" s="11" t="s">
         <v>84</v>
@@ -28187,7 +28186,7 @@
         <v>1</v>
       </c>
       <c r="AK88" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AL88" s="10">
         <v>9</v>
@@ -28250,7 +28249,7 @@
       <c r="BL88" s="12"/>
       <c r="BM88" s="12"/>
       <c r="BN88" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="BO88" s="10">
         <v>3</v>
@@ -28271,7 +28270,7 @@
         <v>27</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C89" s="10">
         <v>2013</v>
@@ -28300,7 +28299,7 @@
         <v>3</v>
       </c>
       <c r="M89" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N89" s="10">
         <v>2</v>
@@ -28316,13 +28315,13 @@
         <v>3</v>
       </c>
       <c r="S89" s="11" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="T89" s="10">
         <v>5</v>
       </c>
       <c r="U89" s="11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="V89" s="10">
         <v>1</v>
@@ -28351,10 +28350,10 @@
         <v>2</v>
       </c>
       <c r="AF89" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AG89" s="11" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AH89" s="11" t="s">
         <v>84</v>
@@ -28364,7 +28363,7 @@
         <v>1</v>
       </c>
       <c r="AK89" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AL89" s="10">
         <v>9</v>
@@ -28427,7 +28426,7 @@
       <c r="BL89" s="12"/>
       <c r="BM89" s="12"/>
       <c r="BN89" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="BO89" s="10">
         <v>3</v>
@@ -28448,7 +28447,7 @@
         <v>28</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C90" s="10">
         <v>2015</v>
@@ -28477,7 +28476,7 @@
         <v>3</v>
       </c>
       <c r="M90" s="11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="N90" s="10">
         <v>1</v>
@@ -28493,13 +28492,13 @@
         <v>3</v>
       </c>
       <c r="S90" s="11" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="T90" s="10">
         <v>5</v>
       </c>
       <c r="U90" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="V90" s="10">
         <v>1</v>
@@ -28511,7 +28510,7 @@
         <v>10</v>
       </c>
       <c r="Y90" s="11" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Z90" s="10">
         <v>1</v>
@@ -28530,22 +28529,22 @@
         <v>3</v>
       </c>
       <c r="AF90" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AG90" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="AH90" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI90" s="11" t="s">
         <v>397</v>
       </c>
-      <c r="AH90" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI90" s="11" t="s">
-        <v>398</v>
-      </c>
       <c r="AJ90" s="10">
         <v>1</v>
       </c>
       <c r="AK90" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AL90" s="10">
         <v>12</v>
@@ -28608,7 +28607,7 @@
       <c r="BL90" s="12"/>
       <c r="BM90" s="12"/>
       <c r="BN90" s="11" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="BO90" s="10">
         <v>3</v>
@@ -28622,7 +28621,7 @@
       <c r="BT90" s="12"/>
       <c r="BU90" s="12"/>
       <c r="BV90" s="11" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="BW90" s="12"/>
     </row>
@@ -28631,7 +28630,7 @@
         <v>28</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C91" s="10">
         <v>2015</v>
@@ -28660,7 +28659,7 @@
         <v>3</v>
       </c>
       <c r="M91" s="11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="N91" s="10">
         <v>1</v>
@@ -28676,13 +28675,13 @@
         <v>3</v>
       </c>
       <c r="S91" s="11" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="T91" s="10">
         <v>5</v>
       </c>
       <c r="U91" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="V91" s="10">
         <v>1</v>
@@ -28694,7 +28693,7 @@
         <v>10</v>
       </c>
       <c r="Y91" s="11" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Z91" s="10">
         <v>1</v>
@@ -28713,22 +28712,22 @@
         <v>3</v>
       </c>
       <c r="AF91" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="AG91" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="AH91" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI91" s="11" t="s">
         <v>401</v>
       </c>
-      <c r="AG91" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="AH91" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI91" s="11" t="s">
-        <v>402</v>
-      </c>
       <c r="AJ91" s="10">
         <v>1</v>
       </c>
       <c r="AK91" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AL91" s="10">
         <v>12</v>
@@ -28791,7 +28790,7 @@
       <c r="BL91" s="12"/>
       <c r="BM91" s="12"/>
       <c r="BN91" s="11" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="BO91" s="10">
         <v>3</v>
@@ -28812,7 +28811,7 @@
         <v>28</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C92" s="10">
         <v>2015</v>
@@ -28841,7 +28840,7 @@
         <v>3</v>
       </c>
       <c r="M92" s="11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="N92" s="10">
         <v>1</v>
@@ -28857,13 +28856,13 @@
         <v>3</v>
       </c>
       <c r="S92" s="11" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="T92" s="10">
         <v>5</v>
       </c>
       <c r="U92" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="V92" s="10">
         <v>1</v>
@@ -28875,7 +28874,7 @@
         <v>10</v>
       </c>
       <c r="Y92" s="11" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Z92" s="10">
         <v>1</v>
@@ -28894,10 +28893,10 @@
         <v>2</v>
       </c>
       <c r="AF92" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="AG92" s="11" t="s">
         <v>403</v>
-      </c>
-      <c r="AG92" s="11" t="s">
-        <v>404</v>
       </c>
       <c r="AH92" s="11" t="s">
         <v>84</v>
@@ -28907,7 +28906,7 @@
         <v>1</v>
       </c>
       <c r="AK92" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AL92" s="10">
         <v>12</v>
@@ -28970,7 +28969,7 @@
       <c r="BL92" s="12"/>
       <c r="BM92" s="12"/>
       <c r="BN92" s="11" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="BO92" s="10">
         <v>3</v>
@@ -28991,7 +28990,7 @@
         <v>29</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C93" s="10">
         <v>2017</v>
@@ -29038,7 +29037,7 @@
         <v>2</v>
       </c>
       <c r="U93" s="11" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="V93" s="10">
         <v>2</v>
@@ -29067,20 +29066,20 @@
         <v>1</v>
       </c>
       <c r="AF93" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="AG93" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="AG93" s="11" t="s">
+      <c r="AH93" s="11" t="s">
         <v>408</v>
-      </c>
-      <c r="AH93" s="11" t="s">
-        <v>409</v>
       </c>
       <c r="AI93" s="12"/>
       <c r="AJ93" s="10">
         <v>2</v>
       </c>
       <c r="AK93" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AL93" s="10">
         <v>12</v>
@@ -29143,7 +29142,7 @@
       <c r="BL93" s="12"/>
       <c r="BM93" s="12"/>
       <c r="BN93" s="11" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="BO93" s="10">
         <v>3</v>
@@ -29164,7 +29163,7 @@
         <v>29</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C94" s="10">
         <v>2017</v>
@@ -29211,7 +29210,7 @@
         <v>2</v>
       </c>
       <c r="U94" s="11" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="V94" s="10">
         <v>2</v>
@@ -29240,20 +29239,20 @@
         <v>1</v>
       </c>
       <c r="AF94" s="11" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AG94" s="11" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AH94" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AI94" s="12"/>
       <c r="AJ94" s="10">
         <v>2</v>
       </c>
       <c r="AK94" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AL94" s="10">
         <v>12</v>
@@ -29316,7 +29315,7 @@
       <c r="BL94" s="12"/>
       <c r="BM94" s="12"/>
       <c r="BN94" s="11" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="BO94" s="10">
         <v>3</v>
@@ -29337,7 +29336,7 @@
         <v>30</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C95" s="10">
         <v>2014</v>
@@ -29394,7 +29393,7 @@
         <v>1</v>
       </c>
       <c r="Y95" s="11" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="Z95" s="10">
         <v>2</v>
@@ -29413,22 +29412,22 @@
         <v>3</v>
       </c>
       <c r="AF95" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="AG95" s="11" t="s">
         <v>414</v>
-      </c>
-      <c r="AG95" s="11" t="s">
-        <v>415</v>
       </c>
       <c r="AH95" s="11" t="s">
         <v>84</v>
       </c>
       <c r="AI95" s="37" t="s">
+        <v>415</v>
+      </c>
+      <c r="AJ95" s="36">
+        <v>1</v>
+      </c>
+      <c r="AK95" s="37" t="s">
         <v>416</v>
-      </c>
-      <c r="AJ95" s="36">
-        <v>1</v>
-      </c>
-      <c r="AK95" s="37" t="s">
-        <v>417</v>
       </c>
       <c r="AL95" s="10">
         <v>4</v>
@@ -29491,7 +29490,7 @@
       <c r="BL95" s="12"/>
       <c r="BM95" s="12"/>
       <c r="BN95" s="11" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="BO95" s="10">
         <v>3</v>
@@ -29505,7 +29504,7 @@
       <c r="BT95" s="12"/>
       <c r="BU95" s="12"/>
       <c r="BV95" s="11" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="BW95" s="12"/>
     </row>
@@ -29514,7 +29513,7 @@
         <v>31</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C96" s="10">
         <v>2009</v>
@@ -29526,7 +29525,7 @@
         <v>75</v>
       </c>
       <c r="F96" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G96" s="12"/>
       <c r="H96" s="10">
@@ -29543,7 +29542,7 @@
         <v>3</v>
       </c>
       <c r="M96" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N96" s="10">
         <v>2</v>
@@ -29559,13 +29558,13 @@
         <v>2</v>
       </c>
       <c r="S96" s="11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="T96" s="10">
         <v>4</v>
       </c>
       <c r="U96" s="11" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="V96" s="10">
         <v>1</v>
@@ -29577,7 +29576,7 @@
         <v>1</v>
       </c>
       <c r="Y96" s="40" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="Z96" s="10">
         <v>2</v>
@@ -29609,7 +29608,7 @@
         <v>2</v>
       </c>
       <c r="AK96" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AL96" s="10">
         <v>13</v>
@@ -29672,7 +29671,7 @@
       <c r="BL96" s="12"/>
       <c r="BM96" s="12"/>
       <c r="BN96" s="11" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="BO96" s="10">
         <v>3</v>
@@ -29683,16 +29682,16 @@
       </c>
       <c r="BR96" s="12"/>
       <c r="BS96" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="BT96" s="11" t="s">
         <v>425</v>
       </c>
-      <c r="BT96" s="11" t="s">
+      <c r="BU96" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="BU96" s="11" t="s">
+      <c r="BV96" s="11" t="s">
         <v>427</v>
-      </c>
-      <c r="BV96" s="11" t="s">
-        <v>428</v>
       </c>
       <c r="BW96" s="12"/>
     </row>
@@ -29701,7 +29700,7 @@
         <v>31</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C97" s="10">
         <v>2009</v>
@@ -29713,7 +29712,7 @@
         <v>75</v>
       </c>
       <c r="F97" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G97" s="12"/>
       <c r="H97" s="10">
@@ -29730,7 +29729,7 @@
         <v>3</v>
       </c>
       <c r="M97" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N97" s="10">
         <v>2</v>
@@ -29746,13 +29745,13 @@
         <v>2</v>
       </c>
       <c r="S97" s="11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="T97" s="10">
         <v>4</v>
       </c>
       <c r="U97" s="11" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="V97" s="10">
         <v>1</v>
@@ -29764,7 +29763,7 @@
         <v>1</v>
       </c>
       <c r="Y97" s="40" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="Z97" s="10">
         <v>2</v>
@@ -29783,22 +29782,22 @@
         <v>3</v>
       </c>
       <c r="AF97" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AG97" s="11" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AH97" s="11" t="s">
         <v>84</v>
       </c>
       <c r="AI97" s="37" t="s">
+        <v>429</v>
+      </c>
+      <c r="AJ97" s="36">
+        <v>2</v>
+      </c>
+      <c r="AK97" s="37" t="s">
         <v>430</v>
-      </c>
-      <c r="AJ97" s="36">
-        <v>2</v>
-      </c>
-      <c r="AK97" s="37" t="s">
-        <v>431</v>
       </c>
       <c r="AL97" s="10">
         <v>13</v>
@@ -29861,7 +29860,7 @@
       <c r="BL97" s="12"/>
       <c r="BM97" s="12"/>
       <c r="BN97" s="11" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="BO97" s="10">
         <v>3</v>
@@ -29873,10 +29872,10 @@
       <c r="BR97" s="12"/>
       <c r="BS97" s="12"/>
       <c r="BT97" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="BU97" s="11" t="s">
         <v>426</v>
-      </c>
-      <c r="BU97" s="11" t="s">
-        <v>427</v>
       </c>
       <c r="BV97" s="12"/>
       <c r="BW97" s="12"/>
@@ -29919,10 +29918,10 @@
   <sheetData>
     <row r="3" spans="1:8" ht="28" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -29933,7 +29932,7 @@
         <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14" x14ac:dyDescent="0.15">
@@ -29944,7 +29943,7 @@
         <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14" x14ac:dyDescent="0.15">
@@ -29955,7 +29954,7 @@
         <v>7</v>
       </c>
       <c r="H6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14" x14ac:dyDescent="0.15">
@@ -29966,7 +29965,7 @@
         <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14" x14ac:dyDescent="0.15">
@@ -29977,7 +29976,7 @@
         <v>62</v>
       </c>
       <c r="H8" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14" x14ac:dyDescent="0.15">
@@ -29988,7 +29987,7 @@
         <v>4</v>
       </c>
       <c r="H9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="14" x14ac:dyDescent="0.15">
@@ -29999,7 +29998,7 @@
         <v>4</v>
       </c>
       <c r="H10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="14" x14ac:dyDescent="0.15">
@@ -30010,7 +30009,7 @@
         <v>45</v>
       </c>
       <c r="H11" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="14" x14ac:dyDescent="0.15">
@@ -30021,7 +30020,7 @@
         <v>16</v>
       </c>
       <c r="H12" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="14" x14ac:dyDescent="0.15">
@@ -30032,7 +30031,7 @@
         <v>23</v>
       </c>
       <c r="H13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="14" x14ac:dyDescent="0.15">
@@ -30043,7 +30042,7 @@
         <v>6</v>
       </c>
       <c r="H14" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="14" x14ac:dyDescent="0.15">
@@ -30054,7 +30053,7 @@
         <v>4</v>
       </c>
       <c r="H15" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="14" x14ac:dyDescent="0.15">
@@ -30065,7 +30064,7 @@
         <v>4</v>
       </c>
       <c r="H16" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="14" x14ac:dyDescent="0.15">
@@ -30076,7 +30075,7 @@
         <v>9</v>
       </c>
       <c r="H17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="14" x14ac:dyDescent="0.15">
@@ -30087,7 +30086,7 @@
         <v>9</v>
       </c>
       <c r="H18" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="14" x14ac:dyDescent="0.15">
@@ -30098,7 +30097,7 @@
         <v>3</v>
       </c>
       <c r="H19" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="14" x14ac:dyDescent="0.15">
@@ -30109,7 +30108,7 @@
         <v>3</v>
       </c>
       <c r="H20" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="14" x14ac:dyDescent="0.15">
@@ -30120,7 +30119,7 @@
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="14" x14ac:dyDescent="0.15">
@@ -30131,7 +30130,7 @@
         <v>2</v>
       </c>
       <c r="H22" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="14" x14ac:dyDescent="0.15">
@@ -30142,7 +30141,7 @@
         <v>16</v>
       </c>
       <c r="H23" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="14" x14ac:dyDescent="0.15">
@@ -30153,7 +30152,7 @@
         <v>16</v>
       </c>
       <c r="H24" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="14" x14ac:dyDescent="0.15">
@@ -30164,7 +30163,7 @@
         <v>13</v>
       </c>
       <c r="H25" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="14" x14ac:dyDescent="0.15">
@@ -30175,7 +30174,7 @@
         <v>3</v>
       </c>
       <c r="H26" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="14" x14ac:dyDescent="0.15">
@@ -30186,7 +30185,7 @@
         <v>3</v>
       </c>
       <c r="H27" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="14" x14ac:dyDescent="0.15">
@@ -30197,7 +30196,7 @@
         <v>3</v>
       </c>
       <c r="H28" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="14" x14ac:dyDescent="0.15">
@@ -30208,30 +30207,30 @@
         <v>3</v>
       </c>
       <c r="H29" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A30" s="23" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B30" s="21"/>
     </row>
     <row r="31" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A31" s="20" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B31" s="21"/>
     </row>
     <row r="32" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A32" s="22" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B32" s="21"/>
     </row>
     <row r="33" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A33" s="24" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B33" s="25">
         <v>96</v>
@@ -30239,24 +30238,24 @@
     </row>
     <row r="36" spans="1:13" ht="56" x14ac:dyDescent="0.15">
       <c r="A36" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
       <c r="E36" s="15"/>
       <c r="L36" s="16" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="M36" s="17" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="140" x14ac:dyDescent="0.15">
       <c r="A37" s="16" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B37" s="13" t="s">
         <v>111</v>
@@ -30265,10 +30264,10 @@
         <v>75</v>
       </c>
       <c r="D37" s="26" t="s">
+        <v>432</v>
+      </c>
+      <c r="E37" s="17" t="s">
         <v>433</v>
-      </c>
-      <c r="E37" s="17" t="s">
-        <v>434</v>
       </c>
       <c r="L37" s="18">
         <v>1</v>
@@ -30290,7 +30289,7 @@
         <v>3</v>
       </c>
       <c r="H38" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L38" s="23">
         <v>2</v>
@@ -30314,7 +30313,7 @@
         <v>83</v>
       </c>
       <c r="H39" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L39" s="23">
         <v>3</v>
@@ -30336,7 +30335,7 @@
         <v>6</v>
       </c>
       <c r="H40" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L40" s="23">
         <v>4</v>
@@ -30358,23 +30357,23 @@
         <v>4</v>
       </c>
       <c r="H41" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="L41" s="23" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="M41" s="21"/>
     </row>
     <row r="42" spans="1:13" ht="28" x14ac:dyDescent="0.15">
       <c r="A42" s="23" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B42" s="28"/>
       <c r="C42" s="34"/>
       <c r="D42" s="34"/>
       <c r="E42" s="21"/>
       <c r="L42" s="24" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M42" s="25">
         <v>96</v>
@@ -30382,7 +30381,7 @@
     </row>
     <row r="43" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A43" s="24" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B43" s="29">
         <v>8</v>
@@ -30397,10 +30396,10 @@
     </row>
     <row r="46" spans="1:13" ht="28" x14ac:dyDescent="0.15">
       <c r="A46" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
@@ -30410,7 +30409,7 @@
     </row>
     <row r="47" spans="1:13" ht="98" x14ac:dyDescent="0.15">
       <c r="A47" s="16" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B47" s="13">
         <v>1</v>
@@ -30425,10 +30424,10 @@
         <v>4</v>
       </c>
       <c r="F47" s="26" t="s">
+        <v>432</v>
+      </c>
+      <c r="G47" s="17" t="s">
         <v>433</v>
-      </c>
-      <c r="G47" s="17" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.15">
@@ -30488,7 +30487,7 @@
     </row>
     <row r="51" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A51" s="23" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B51" s="28"/>
       <c r="C51" s="34"/>
@@ -30499,7 +30498,7 @@
     </row>
     <row r="52" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A52" s="24" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B52" s="29">
         <v>73</v>

--- a/Data/Full_data_ML3.xlsx
+++ b/Data/Full_data_ML3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/losialagisz/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erinmacartney/Documents/EE_stress_MA/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4844A1B-B19D-924A-9CEC-5F5F18F8864E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5F7D83-3896-B841-A6FB-B48C28D4BECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40580" windowHeight="23040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1 - Full_data" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId3"/>
+    <pivotCache cacheId="1" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -247,7 +247,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="464">
   <si>
     <t>Study_ID</t>
   </si>
@@ -1615,13 +1615,37 @@
   </si>
   <si>
     <t>shock</t>
+  </si>
+  <si>
+    <t>7.12, 12.18</t>
+  </si>
+  <si>
+    <t>9.12, 10.65</t>
+  </si>
+  <si>
+    <t>1.53, 4.05</t>
+  </si>
+  <si>
+    <t>3.55, 10.65</t>
+  </si>
+  <si>
+    <t>16.22, 11.16</t>
+  </si>
+  <si>
+    <t>21.8, 3.55</t>
+  </si>
+  <si>
+    <t>6.09, 8.62</t>
+  </si>
+  <si>
+    <t>9.63, 3.04</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -1629,6 +1653,12 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
@@ -1921,7 +1951,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2046,6 +2076,24 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -10037,7 +10085,173 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C2E2E2D7-C779-FE42-94F2-12B0B7E709E0}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8778D12E-7CCE-A247-96E6-0CEEC95E66B0}" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="L36:M42" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="75">
+    <pivotField dataField="1" showAll="0">
+      <items count="33">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="27"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Study_ID" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C2E2E2D7-C779-FE42-94F2-12B0B7E709E0}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="75">
     <pivotField showAll="0">
@@ -10411,8 +10625,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E2FEF28A-B3FE-984A-8BCE-ED2844012400}" name="PivotTable3" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E2FEF28A-B3FE-984A-8BCE-ED2844012400}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A46:G52" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="75">
     <pivotField showAll="0"/>
@@ -10667,8 +10881,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F48DB254-D1C8-C949-A25A-C9C26EF05E66}" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F48DB254-D1C8-C949-A25A-C9C26EF05E66}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A36:E43" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="75">
     <pivotField showAll="0"/>
@@ -10906,172 +11120,6 @@
   </colItems>
   <dataFields count="1">
     <dataField name="Count of ES_ID" fld="3" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8778D12E-7CCE-A247-96E6-0CEEC95E66B0}" name="PivotTable4" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="L36:M42" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="75">
-    <pivotField dataField="1" showAll="0">
-      <items count="33">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="27"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Study_ID" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -12240,8 +12288,12 @@
   </sheetPr>
   <dimension ref="A1:BW97"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="N91" workbookViewId="0">
-      <selection activeCell="Z114" sqref="Z114"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="BB9" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="BJ29" sqref="BJ29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12285,7 +12337,7 @@
     <col min="38" max="38" width="5.83203125" style="1" customWidth="1"/>
     <col min="39" max="39" width="9.1640625" style="1" customWidth="1"/>
     <col min="40" max="40" width="10.6640625" style="1" customWidth="1"/>
-    <col min="41" max="41" width="11.1640625" style="1" customWidth="1"/>
+    <col min="41" max="41" width="11.1640625" style="46" customWidth="1"/>
     <col min="42" max="42" width="7" style="1" customWidth="1"/>
     <col min="43" max="44" width="16.1640625" style="1" customWidth="1"/>
     <col min="45" max="45" width="5.6640625" style="1" customWidth="1"/>
@@ -12442,7 +12494,7 @@
       <c r="AN1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AO1" s="43" t="s">
         <v>40</v>
       </c>
       <c r="AP1" s="2" t="s">
@@ -12661,7 +12713,7 @@
         <v>10.5</v>
       </c>
       <c r="AN2" s="7"/>
-      <c r="AO2" s="5">
+      <c r="AO2" s="44">
         <v>4.46</v>
       </c>
       <c r="AP2" s="5">
@@ -12850,7 +12902,7 @@
         <v>191.8</v>
       </c>
       <c r="AN3" s="12"/>
-      <c r="AO3" s="10">
+      <c r="AO3" s="45">
         <v>69.98</v>
       </c>
       <c r="AP3" s="10">
@@ -13039,7 +13091,7 @@
         <v>17.55</v>
       </c>
       <c r="AN4" s="12"/>
-      <c r="AO4" s="10">
+      <c r="AO4" s="45">
         <v>3.1</v>
       </c>
       <c r="AP4" s="10">
@@ -13230,7 +13282,7 @@
         <v>3.37</v>
       </c>
       <c r="AN5" s="12"/>
-      <c r="AO5" s="10">
+      <c r="AO5" s="45">
         <v>0.85</v>
       </c>
       <c r="AP5" s="10">
@@ -13415,7 +13467,7 @@
         <v>64.83</v>
       </c>
       <c r="AN6" s="12"/>
-      <c r="AO6" s="10">
+      <c r="AO6" s="45">
         <v>18.350000000000001</v>
       </c>
       <c r="AP6" s="10">
@@ -13600,7 +13652,7 @@
         <v>74.27</v>
       </c>
       <c r="AN7" s="12"/>
-      <c r="AO7" s="10">
+      <c r="AO7" s="45">
         <v>13.99</v>
       </c>
       <c r="AP7" s="10">
@@ -13783,7 +13835,7 @@
         <v>38.22</v>
       </c>
       <c r="AN8" s="12"/>
-      <c r="AO8" s="10">
+      <c r="AO8" s="45">
         <v>5.44</v>
       </c>
       <c r="AP8" s="10">
@@ -13962,7 +14014,7 @@
         <v>43.04</v>
       </c>
       <c r="AN9" s="12"/>
-      <c r="AO9" s="10">
+      <c r="AO9" s="45">
         <v>9.77</v>
       </c>
       <c r="AP9" s="10">
@@ -14147,7 +14199,7 @@
         <v>18.690000000000001</v>
       </c>
       <c r="AN10" s="12"/>
-      <c r="AO10" s="10">
+      <c r="AO10" s="45">
         <v>5.8548441479999997</v>
       </c>
       <c r="AP10" s="10">
@@ -14334,7 +14386,7 @@
         <v>52.94</v>
       </c>
       <c r="AN11" s="12"/>
-      <c r="AO11" s="10">
+      <c r="AO11" s="45">
         <v>38.494893169999997</v>
       </c>
       <c r="AP11" s="10">
@@ -14517,7 +14569,7 @@
         <v>33</v>
       </c>
       <c r="AN12" s="12"/>
-      <c r="AO12" s="10">
+      <c r="AO12" s="45">
         <v>9.9863506849999997</v>
       </c>
       <c r="AP12" s="10">
@@ -14698,7 +14750,7 @@
         <v>28.5</v>
       </c>
       <c r="AN13" s="12"/>
-      <c r="AO13" s="10">
+      <c r="AO13" s="45">
         <v>22.5</v>
       </c>
       <c r="AP13" s="10">
@@ -14881,7 +14933,7 @@
         <v>62.3</v>
       </c>
       <c r="AN14" s="12"/>
-      <c r="AO14" s="10">
+      <c r="AO14" s="45">
         <v>26.97</v>
       </c>
       <c r="AP14" s="10">
@@ -15064,7 +15116,7 @@
         <v>56.59</v>
       </c>
       <c r="AN15" s="12"/>
-      <c r="AO15" s="10">
+      <c r="AO15" s="45">
         <v>10.17</v>
       </c>
       <c r="AP15" s="10">
@@ -15247,7 +15299,7 @@
         <v>84.75</v>
       </c>
       <c r="AN16" s="12"/>
-      <c r="AO16" s="10">
+      <c r="AO16" s="45">
         <v>110.62</v>
       </c>
       <c r="AP16" s="10">
@@ -15428,7 +15480,7 @@
         <v>149.33000000000001</v>
       </c>
       <c r="AN17" s="12"/>
-      <c r="AO17" s="10">
+      <c r="AO17" s="45">
         <v>170.16</v>
       </c>
       <c r="AP17" s="10">
@@ -15609,7 +15661,7 @@
         <v>13.82</v>
       </c>
       <c r="AN18" s="12"/>
-      <c r="AO18" s="10">
+      <c r="AO18" s="45">
         <v>5.46</v>
       </c>
       <c r="AP18" s="10">
@@ -15790,7 +15842,7 @@
         <v>17.45</v>
       </c>
       <c r="AN19" s="12"/>
-      <c r="AO19" s="10">
+      <c r="AO19" s="45">
         <v>12</v>
       </c>
       <c r="AP19" s="10">
@@ -15971,7 +16023,7 @@
         <v>30.3</v>
       </c>
       <c r="AN20" s="12"/>
-      <c r="AO20" s="10">
+      <c r="AO20" s="45">
         <v>18.18</v>
       </c>
       <c r="AP20" s="10">
@@ -16150,7 +16202,7 @@
         <v>48.28</v>
       </c>
       <c r="AN21" s="12"/>
-      <c r="AO21" s="10">
+      <c r="AO21" s="45">
         <v>27.6</v>
       </c>
       <c r="AP21" s="10">
@@ -16331,7 +16383,7 @@
         <v>14.5</v>
       </c>
       <c r="AN22" s="12"/>
-      <c r="AO22" s="10">
+      <c r="AO22" s="45">
         <v>16.18</v>
       </c>
       <c r="AP22" s="10">
@@ -16512,7 +16564,7 @@
         <v>45.57</v>
       </c>
       <c r="AN23" s="12"/>
-      <c r="AO23" s="10">
+      <c r="AO23" s="45">
         <v>22.04</v>
       </c>
       <c r="AP23" s="10">
@@ -16691,7 +16743,7 @@
         <v>17.329999999999998</v>
       </c>
       <c r="AN24" s="12"/>
-      <c r="AO24" s="10">
+      <c r="AO24" s="45">
         <v>13.04</v>
       </c>
       <c r="AP24" s="10">
@@ -16874,7 +16926,7 @@
         <v>11.93</v>
       </c>
       <c r="AN25" s="12"/>
-      <c r="AO25" s="10">
+      <c r="AO25" s="45">
         <v>6.48</v>
       </c>
       <c r="AP25" s="10">
@@ -17057,7 +17109,7 @@
         <v>10.050000000000001</v>
       </c>
       <c r="AN26" s="12"/>
-      <c r="AO26" s="10">
+      <c r="AO26" s="45">
         <v>1.72</v>
       </c>
       <c r="AP26" s="10">
@@ -17238,7 +17290,7 @@
         <v>9.6</v>
       </c>
       <c r="AN27" s="12"/>
-      <c r="AO27" s="10">
+      <c r="AO27" s="45">
         <v>2.54</v>
       </c>
       <c r="AP27" s="10">
@@ -17416,14 +17468,14 @@
         <v>6</v>
       </c>
       <c r="AM28" s="10">
-        <v>75.62</v>
+        <v>84.69</v>
       </c>
       <c r="AN28" s="12"/>
-      <c r="AO28" s="10">
-        <v>30.23</v>
-      </c>
-      <c r="AP28" s="10">
-        <v>12.34</v>
+      <c r="AO28" s="47">
+        <v>25.960570000000001</v>
+      </c>
+      <c r="AP28" s="42" t="s">
+        <v>456</v>
       </c>
       <c r="AQ28" s="12"/>
       <c r="AR28" s="12"/>
@@ -17431,14 +17483,14 @@
         <v>6</v>
       </c>
       <c r="AT28" s="10">
-        <v>102.37</v>
+        <v>60.35</v>
       </c>
       <c r="AU28" s="12"/>
-      <c r="AV28" s="10">
-        <v>26.45</v>
-      </c>
-      <c r="AW28" s="10">
-        <v>10.8</v>
+      <c r="AV28" s="42">
+        <v>24.429770000000001</v>
+      </c>
+      <c r="AW28" s="42" t="s">
+        <v>457</v>
       </c>
       <c r="AX28" s="12"/>
       <c r="AY28" s="12"/>
@@ -17446,14 +17498,14 @@
         <v>6</v>
       </c>
       <c r="BA28" s="10">
-        <v>74.59</v>
+        <v>54.76</v>
       </c>
       <c r="BB28" s="12"/>
-      <c r="BC28" s="10">
-        <v>12.59</v>
-      </c>
-      <c r="BD28" s="10">
-        <v>5.14</v>
+      <c r="BC28" s="42">
+        <v>8.6764849999999996</v>
+      </c>
+      <c r="BD28" s="42" t="s">
+        <v>458</v>
       </c>
       <c r="BE28" s="12"/>
       <c r="BF28" s="12"/>
@@ -17461,14 +17513,14 @@
         <v>6</v>
       </c>
       <c r="BH28" s="10">
-        <v>107</v>
+        <v>43.61</v>
       </c>
       <c r="BI28" s="12"/>
-      <c r="BJ28" s="10">
-        <v>23.93</v>
-      </c>
-      <c r="BK28" s="10">
-        <v>9.77</v>
+      <c r="BJ28" s="42">
+        <v>23.006630000000001</v>
+      </c>
+      <c r="BK28" s="42" t="s">
+        <v>459</v>
       </c>
       <c r="BL28" s="12"/>
       <c r="BM28" s="12"/>
@@ -17595,14 +17647,14 @@
         <v>6</v>
       </c>
       <c r="AM29" s="10">
-        <v>111.11</v>
+        <v>53.25</v>
       </c>
       <c r="AN29" s="12"/>
-      <c r="AO29" s="10">
-        <v>26.45</v>
-      </c>
-      <c r="AP29" s="10">
-        <v>10.8</v>
+      <c r="AO29" s="47">
+        <v>35.20955</v>
+      </c>
+      <c r="AP29" s="42" t="s">
+        <v>460</v>
       </c>
       <c r="AQ29" s="12"/>
       <c r="AR29" s="12"/>
@@ -17610,14 +17662,14 @@
         <v>6</v>
       </c>
       <c r="AT29" s="10">
-        <v>96.19</v>
+        <v>75.05</v>
       </c>
       <c r="AU29" s="12"/>
-      <c r="AV29" s="10">
-        <v>8.82</v>
-      </c>
-      <c r="AW29" s="10">
-        <v>3.6</v>
+      <c r="AV29" s="42">
+        <v>49.625749999999996</v>
+      </c>
+      <c r="AW29" s="42" t="s">
+        <v>461</v>
       </c>
       <c r="AX29" s="12"/>
       <c r="AY29" s="12"/>
@@ -17625,14 +17677,14 @@
         <v>6</v>
       </c>
       <c r="BA29" s="10">
-        <v>109.57</v>
+        <v>23.83</v>
       </c>
       <c r="BB29" s="12"/>
-      <c r="BC29" s="10">
-        <v>21.41</v>
-      </c>
-      <c r="BD29" s="10">
-        <v>8.74</v>
+      <c r="BC29" s="42">
+        <v>18.798410000000001</v>
+      </c>
+      <c r="BD29" s="42" t="s">
+        <v>462</v>
       </c>
       <c r="BE29" s="12"/>
       <c r="BF29" s="12"/>
@@ -17640,14 +17692,14 @@
         <v>6</v>
       </c>
       <c r="BH29" s="10">
-        <v>80.760000000000005</v>
+        <v>45.13</v>
       </c>
       <c r="BI29" s="12"/>
-      <c r="BJ29" s="10">
-        <v>8.82</v>
-      </c>
-      <c r="BK29" s="10">
-        <v>3.6</v>
+      <c r="BJ29" s="42">
+        <v>20.88588</v>
+      </c>
+      <c r="BK29" s="42" t="s">
+        <v>463</v>
       </c>
       <c r="BL29" s="12"/>
       <c r="BM29" s="12"/>
@@ -17777,7 +17829,7 @@
         <v>33.25</v>
       </c>
       <c r="AN30" s="12"/>
-      <c r="AO30" s="10">
+      <c r="AO30" s="45">
         <v>15.92</v>
       </c>
       <c r="AP30" s="10">
@@ -17954,7 +18006,7 @@
         <v>35.25</v>
       </c>
       <c r="AN31" s="12"/>
-      <c r="AO31" s="10">
+      <c r="AO31" s="45">
         <v>7.96</v>
       </c>
       <c r="AP31" s="10">
@@ -18129,7 +18181,7 @@
         <v>28.95</v>
       </c>
       <c r="AN32" s="12"/>
-      <c r="AO32" s="10">
+      <c r="AO32" s="45">
         <v>3.95</v>
       </c>
       <c r="AP32" s="12"/>
@@ -18296,7 +18348,7 @@
         <v>62.98</v>
       </c>
       <c r="AN33" s="12"/>
-      <c r="AO33" s="10">
+      <c r="AO33" s="45">
         <v>4.8099999999999996</v>
       </c>
       <c r="AP33" s="12"/>
@@ -18463,7 +18515,7 @@
         <v>12.47</v>
       </c>
       <c r="AN34" s="12"/>
-      <c r="AO34" s="10">
+      <c r="AO34" s="45">
         <v>7.45</v>
       </c>
       <c r="AP34" s="10">
@@ -18638,7 +18690,7 @@
         <v>12.65</v>
       </c>
       <c r="AN35" s="12"/>
-      <c r="AO35" s="10">
+      <c r="AO35" s="45">
         <v>5.12</v>
       </c>
       <c r="AP35" s="10">
@@ -18815,7 +18867,7 @@
         <v>19.690000000000001</v>
       </c>
       <c r="AN36" s="12"/>
-      <c r="AO36" s="10">
+      <c r="AO36" s="45">
         <v>1.8</v>
       </c>
       <c r="AP36" s="10">
@@ -18992,7 +19044,7 @@
         <v>18.34</v>
       </c>
       <c r="AN37" s="12"/>
-      <c r="AO37" s="10">
+      <c r="AO37" s="45">
         <v>9.69</v>
       </c>
       <c r="AP37" s="12"/>
@@ -19169,7 +19221,7 @@
         <v>18.66</v>
       </c>
       <c r="AN38" s="12"/>
-      <c r="AO38" s="10">
+      <c r="AO38" s="45">
         <v>9.86</v>
       </c>
       <c r="AP38" s="12"/>
@@ -19346,7 +19398,7 @@
         <v>17.28</v>
       </c>
       <c r="AN39" s="12"/>
-      <c r="AO39" s="10">
+      <c r="AO39" s="45">
         <v>10.82</v>
       </c>
       <c r="AP39" s="12"/>
@@ -19523,7 +19575,7 @@
         <v>15.39</v>
       </c>
       <c r="AN40" s="12"/>
-      <c r="AO40" s="10">
+      <c r="AO40" s="45">
         <v>12.96</v>
       </c>
       <c r="AP40" s="12"/>
@@ -19704,7 +19756,7 @@
       <c r="AN41" s="10">
         <v>3.05</v>
       </c>
-      <c r="AO41" s="10">
+      <c r="AO41" s="45">
         <v>1.92</v>
       </c>
       <c r="AP41" s="12"/>
@@ -19903,7 +19955,7 @@
       <c r="AN42" s="10">
         <v>91.19</v>
       </c>
-      <c r="AO42" s="10">
+      <c r="AO42" s="45">
         <v>19.96</v>
       </c>
       <c r="AP42" s="12"/>
@@ -20102,7 +20154,7 @@
       <c r="AN43" s="10">
         <v>9.11</v>
       </c>
-      <c r="AO43" s="10">
+      <c r="AO43" s="45">
         <v>3.28</v>
       </c>
       <c r="AP43" s="12"/>
@@ -20299,7 +20351,7 @@
       <c r="AN44" s="10">
         <v>22.03</v>
       </c>
-      <c r="AO44" s="10">
+      <c r="AO44" s="45">
         <v>1.1399999999999999</v>
       </c>
       <c r="AP44" s="12"/>
@@ -20496,7 +20548,7 @@
       <c r="AN45" s="10">
         <v>18.059999999999999</v>
       </c>
-      <c r="AO45" s="10">
+      <c r="AO45" s="45">
         <v>3.05</v>
       </c>
       <c r="AP45" s="12"/>
@@ -20693,7 +20745,7 @@
       <c r="AN46" s="10">
         <v>412.94</v>
       </c>
-      <c r="AO46" s="10">
+      <c r="AO46" s="45">
         <v>188.24</v>
       </c>
       <c r="AP46" s="12"/>
@@ -20890,7 +20942,7 @@
       <c r="AN47" s="10">
         <v>77.39</v>
       </c>
-      <c r="AO47" s="10">
+      <c r="AO47" s="45">
         <v>18.61</v>
       </c>
       <c r="AP47" s="12"/>
@@ -21085,7 +21137,7 @@
         <v>66.91</v>
       </c>
       <c r="AN48" s="12"/>
-      <c r="AO48" s="10">
+      <c r="AO48" s="45">
         <v>17.170000000000002</v>
       </c>
       <c r="AP48" s="10">
@@ -21264,7 +21316,7 @@
         <v>12.67</v>
       </c>
       <c r="AN49" s="12"/>
-      <c r="AO49" s="10">
+      <c r="AO49" s="45">
         <v>6.8</v>
       </c>
       <c r="AP49" s="10">
@@ -21441,7 +21493,7 @@
         <v>23.43</v>
       </c>
       <c r="AN50" s="12"/>
-      <c r="AO50" s="10">
+      <c r="AO50" s="45">
         <v>5.28</v>
       </c>
       <c r="AP50" s="10">
@@ -21618,7 +21670,7 @@
         <v>3.3</v>
       </c>
       <c r="AN51" s="12"/>
-      <c r="AO51" s="10">
+      <c r="AO51" s="45">
         <v>1.45</v>
       </c>
       <c r="AP51" s="10">
@@ -21799,7 +21851,7 @@
         <v>1.48</v>
       </c>
       <c r="AN52" s="12"/>
-      <c r="AO52" s="10">
+      <c r="AO52" s="45">
         <v>0.81</v>
       </c>
       <c r="AP52" s="10">
@@ -21980,7 +22032,7 @@
         <v>2.02</v>
       </c>
       <c r="AN53" s="12"/>
-      <c r="AO53" s="10">
+      <c r="AO53" s="45">
         <v>1.65</v>
       </c>
       <c r="AP53" s="10">
@@ -22157,7 +22209,7 @@
         <v>20.62</v>
       </c>
       <c r="AN54" s="12"/>
-      <c r="AO54" s="10">
+      <c r="AO54" s="45">
         <v>9.36</v>
       </c>
       <c r="AP54" s="12"/>
@@ -22326,7 +22378,7 @@
         <v>33.299999999999997</v>
       </c>
       <c r="AN55" s="12"/>
-      <c r="AO55" s="10">
+      <c r="AO55" s="45">
         <v>3.86</v>
       </c>
       <c r="AP55" s="12"/>
@@ -22501,7 +22553,7 @@
         <v>22.38</v>
       </c>
       <c r="AN56" s="12"/>
-      <c r="AO56" s="10">
+      <c r="AO56" s="45">
         <v>3.76</v>
       </c>
       <c r="AP56" s="12"/>
@@ -22672,7 +22724,7 @@
         <v>7.37</v>
       </c>
       <c r="AN57" s="12"/>
-      <c r="AO57" s="10">
+      <c r="AO57" s="45">
         <v>1.91</v>
       </c>
       <c r="AP57" s="12"/>
@@ -22843,7 +22895,7 @@
         <v>19.77</v>
       </c>
       <c r="AN58" s="12"/>
-      <c r="AO58" s="10">
+      <c r="AO58" s="45">
         <v>2.42</v>
       </c>
       <c r="AP58" s="12"/>
@@ -23014,7 +23066,7 @@
         <v>0.83</v>
       </c>
       <c r="AN59" s="12"/>
-      <c r="AO59" s="10">
+      <c r="AO59" s="45">
         <v>0.21</v>
       </c>
       <c r="AP59" s="12"/>
@@ -23183,7 +23235,7 @@
         <v>32</v>
       </c>
       <c r="AN60" s="12"/>
-      <c r="AO60" s="10">
+      <c r="AO60" s="45">
         <v>8.8000000000000007</v>
       </c>
       <c r="AP60" s="12"/>
@@ -23354,7 +23406,7 @@
         <v>59</v>
       </c>
       <c r="AN61" s="12"/>
-      <c r="AO61" s="10">
+      <c r="AO61" s="45">
         <v>6.91</v>
       </c>
       <c r="AP61" s="12"/>
@@ -23523,7 +23575,7 @@
         <v>14.71</v>
       </c>
       <c r="AN62" s="12"/>
-      <c r="AO62" s="10">
+      <c r="AO62" s="45">
         <v>9.9700000000000006</v>
       </c>
       <c r="AP62" s="10">
@@ -23700,7 +23752,7 @@
         <v>32</v>
       </c>
       <c r="AN63" s="12"/>
-      <c r="AO63" s="10">
+      <c r="AO63" s="45">
         <v>4.7</v>
       </c>
       <c r="AP63" s="10">
@@ -23885,7 +23937,7 @@
         <v>77.66</v>
       </c>
       <c r="AN64" s="12"/>
-      <c r="AO64" s="10">
+      <c r="AO64" s="45">
         <v>19.71</v>
       </c>
       <c r="AP64" s="10">
@@ -24070,7 +24122,7 @@
         <v>92.06</v>
       </c>
       <c r="AN65" s="12"/>
-      <c r="AO65" s="10">
+      <c r="AO65" s="45">
         <v>33.6</v>
       </c>
       <c r="AP65" s="10">
@@ -24255,7 +24307,7 @@
         <v>114.29</v>
       </c>
       <c r="AN66" s="12"/>
-      <c r="AO66" s="10">
+      <c r="AO66" s="45">
         <v>26.46</v>
       </c>
       <c r="AP66" s="10">
@@ -24440,7 +24492,7 @@
         <v>92.49</v>
       </c>
       <c r="AN67" s="12"/>
-      <c r="AO67" s="10">
+      <c r="AO67" s="45">
         <v>38.229999999999997</v>
       </c>
       <c r="AP67" s="10">
@@ -24623,7 +24675,7 @@
         <v>36.67</v>
       </c>
       <c r="AN68" s="12"/>
-      <c r="AO68" s="10">
+      <c r="AO68" s="45">
         <v>16.38</v>
       </c>
       <c r="AP68" s="10">
@@ -24806,7 +24858,7 @@
         <v>23.33</v>
       </c>
       <c r="AN69" s="12"/>
-      <c r="AO69" s="10">
+      <c r="AO69" s="45">
         <v>26.46</v>
       </c>
       <c r="AP69" s="10">
@@ -24989,7 +25041,7 @@
         <v>40.479999999999997</v>
       </c>
       <c r="AN70" s="12"/>
-      <c r="AO70" s="10">
+      <c r="AO70" s="45">
         <v>3.76</v>
       </c>
       <c r="AP70" s="10">
@@ -25172,7 +25224,7 @@
         <v>45.71</v>
       </c>
       <c r="AN71" s="12"/>
-      <c r="AO71" s="10">
+      <c r="AO71" s="45">
         <v>27.73</v>
       </c>
       <c r="AP71" s="10">
@@ -25357,7 +25409,7 @@
         <v>29.64</v>
       </c>
       <c r="AN72" s="12"/>
-      <c r="AO72" s="10">
+      <c r="AO72" s="45">
         <v>19.36</v>
       </c>
       <c r="AP72" s="10">
@@ -25540,7 +25592,7 @@
         <v>34.67</v>
       </c>
       <c r="AN73" s="12"/>
-      <c r="AO73" s="10">
+      <c r="AO73" s="45">
         <v>21.55</v>
       </c>
       <c r="AP73" s="10">
@@ -25719,7 +25771,7 @@
         <v>1</v>
       </c>
       <c r="AN74" s="12"/>
-      <c r="AO74" s="10">
+      <c r="AO74" s="45">
         <v>0.62</v>
       </c>
       <c r="AP74" s="10">
@@ -25900,7 +25952,7 @@
         <v>0.99</v>
       </c>
       <c r="AN75" s="12"/>
-      <c r="AO75" s="10">
+      <c r="AO75" s="45">
         <v>0.66</v>
       </c>
       <c r="AP75" s="10">
@@ -26075,7 +26127,7 @@
         <v>94.71</v>
       </c>
       <c r="AN76" s="12"/>
-      <c r="AO76" s="10">
+      <c r="AO76" s="45">
         <v>4.0199999999999996</v>
       </c>
       <c r="AP76" s="10">
@@ -26250,7 +26302,7 @@
         <v>0.73</v>
       </c>
       <c r="AN77" s="12"/>
-      <c r="AO77" s="10">
+      <c r="AO77" s="45">
         <v>0.11</v>
       </c>
       <c r="AP77" s="10">
@@ -26427,7 +26479,7 @@
         <v>93.78</v>
       </c>
       <c r="AN78" s="12"/>
-      <c r="AO78" s="10">
+      <c r="AO78" s="45">
         <v>5.03</v>
       </c>
       <c r="AP78" s="10">
@@ -26604,7 +26656,7 @@
         <v>92.94</v>
       </c>
       <c r="AN79" s="12"/>
-      <c r="AO79" s="10">
+      <c r="AO79" s="45">
         <v>5.83</v>
       </c>
       <c r="AP79" s="10">
@@ -26781,7 +26833,7 @@
         <v>73.14</v>
       </c>
       <c r="AN80" s="12"/>
-      <c r="AO80" s="10">
+      <c r="AO80" s="45">
         <v>12.93</v>
       </c>
       <c r="AP80" s="10">
@@ -26958,7 +27010,7 @@
         <v>89.06</v>
       </c>
       <c r="AN81" s="12"/>
-      <c r="AO81" s="10">
+      <c r="AO81" s="45">
         <v>5.71</v>
       </c>
       <c r="AP81" s="10">
@@ -27135,7 +27187,7 @@
         <v>90.03</v>
       </c>
       <c r="AN82" s="12"/>
-      <c r="AO82" s="10">
+      <c r="AO82" s="45">
         <v>4.05</v>
       </c>
       <c r="AP82" s="10">
@@ -27312,7 +27364,7 @@
         <v>0.44</v>
       </c>
       <c r="AN83" s="12"/>
-      <c r="AO83" s="10">
+      <c r="AO83" s="45">
         <v>0.24</v>
       </c>
       <c r="AP83" s="10">
@@ -27487,7 +27539,7 @@
         <v>83.39</v>
       </c>
       <c r="AN84" s="12"/>
-      <c r="AO84" s="10">
+      <c r="AO84" s="45">
         <v>7.66</v>
       </c>
       <c r="AP84" s="10">
@@ -27662,7 +27714,7 @@
         <v>1.02</v>
       </c>
       <c r="AN85" s="12"/>
-      <c r="AO85" s="10">
+      <c r="AO85" s="45">
         <v>0.66</v>
       </c>
       <c r="AP85" s="10">
@@ -27841,7 +27893,7 @@
         <v>74.14</v>
       </c>
       <c r="AN86" s="12"/>
-      <c r="AO86" s="10">
+      <c r="AO86" s="45">
         <v>10.85</v>
       </c>
       <c r="AP86" s="10">
@@ -28018,7 +28070,7 @@
         <v>266.92</v>
       </c>
       <c r="AN87" s="12"/>
-      <c r="AO87" s="10">
+      <c r="AO87" s="45">
         <v>192.46</v>
       </c>
       <c r="AP87" s="10">
@@ -28195,7 +28247,7 @@
         <v>303.06</v>
       </c>
       <c r="AN88" s="12"/>
-      <c r="AO88" s="10">
+      <c r="AO88" s="45">
         <v>66.69</v>
       </c>
       <c r="AP88" s="10">
@@ -28372,7 +28424,7 @@
         <v>0.06</v>
       </c>
       <c r="AN89" s="12"/>
-      <c r="AO89" s="10">
+      <c r="AO89" s="45">
         <v>0.09</v>
       </c>
       <c r="AP89" s="10">
@@ -28553,7 +28605,7 @@
         <v>62.66</v>
       </c>
       <c r="AN90" s="12"/>
-      <c r="AO90" s="10">
+      <c r="AO90" s="45">
         <v>11.81</v>
       </c>
       <c r="AP90" s="10">
@@ -28736,7 +28788,7 @@
         <v>35.909999999999997</v>
       </c>
       <c r="AN91" s="12"/>
-      <c r="AO91" s="10">
+      <c r="AO91" s="45">
         <v>9.4600000000000009</v>
       </c>
       <c r="AP91" s="10">
@@ -28915,7 +28967,7 @@
         <v>66.14</v>
       </c>
       <c r="AN92" s="12"/>
-      <c r="AO92" s="10">
+      <c r="AO92" s="45">
         <v>6.37</v>
       </c>
       <c r="AP92" s="10">
@@ -29088,7 +29140,7 @@
         <v>4.2300000000000004</v>
       </c>
       <c r="AN93" s="12"/>
-      <c r="AO93" s="10">
+      <c r="AO93" s="45">
         <v>0.73</v>
       </c>
       <c r="AP93" s="10">
@@ -29261,7 +29313,7 @@
         <v>2.5099999999999998</v>
       </c>
       <c r="AN94" s="12"/>
-      <c r="AO94" s="10">
+      <c r="AO94" s="45">
         <v>0.48</v>
       </c>
       <c r="AP94" s="10">
@@ -29436,7 +29488,7 @@
         <v>49.86</v>
       </c>
       <c r="AN95" s="12"/>
-      <c r="AO95" s="10">
+      <c r="AO95" s="45">
         <v>17</v>
       </c>
       <c r="AP95" s="10">
@@ -29617,7 +29669,7 @@
         <v>39.78</v>
       </c>
       <c r="AN96" s="12"/>
-      <c r="AO96" s="10">
+      <c r="AO96" s="45">
         <v>21.164585989999999</v>
       </c>
       <c r="AP96" s="10">
@@ -29806,7 +29858,7 @@
         <v>15.24</v>
       </c>
       <c r="AN97" s="12"/>
-      <c r="AO97" s="10">
+      <c r="AO97" s="45">
         <v>3.6416067879999998</v>
       </c>
       <c r="AP97" s="10">

--- a/Data/Full_data_ML3.xlsx
+++ b/Data/Full_data_ML3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erinmacartney/Documents/EE_stress_MA/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5F7D83-3896-B841-A6FB-B48C28D4BECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A8212D-747B-F34C-A23E-E2CC3DF277CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -247,7 +247,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="491">
   <si>
     <t>Study_ID</t>
   </si>
@@ -1639,6 +1639,87 @@
   </si>
   <si>
     <t>9.63, 3.04</t>
+  </si>
+  <si>
+    <t>9.36,  8.19</t>
+  </si>
+  <si>
+    <t>14.04, 9.35</t>
+  </si>
+  <si>
+    <t>3.5, 10.52</t>
+  </si>
+  <si>
+    <t>8.19, 10.53</t>
+  </si>
+  <si>
+    <t>10.53, 12.86</t>
+  </si>
+  <si>
+    <t>9.36, 8.19</t>
+  </si>
+  <si>
+    <t>5.85, 10.52</t>
+  </si>
+  <si>
+    <t>10.53, 8.19</t>
+  </si>
+  <si>
+    <t>20.7,  11.15</t>
+  </si>
+  <si>
+    <t>15.93, 9.55</t>
+  </si>
+  <si>
+    <t>7.96,  6.37</t>
+  </si>
+  <si>
+    <t>23.88, 15.93</t>
+  </si>
+  <si>
+    <t>12.74 , 6.37</t>
+  </si>
+  <si>
+    <t>23.88, 15.92</t>
+  </si>
+  <si>
+    <t>12.74, 6.37</t>
+  </si>
+  <si>
+    <t>6.37, 7.96</t>
+  </si>
+  <si>
+    <t>24.76423, 21.6687</t>
+  </si>
+  <si>
+    <t>27.85976, 34.02436</t>
+  </si>
+  <si>
+    <t>54.76705, 29.50013</t>
+  </si>
+  <si>
+    <t>63.18054, 42.14682</t>
+  </si>
+  <si>
+    <t>37.14635, 24.73777</t>
+  </si>
+  <si>
+    <t>42.14682. 25.26693</t>
+  </si>
+  <si>
+    <t>33.70687, 16.85344</t>
+  </si>
+  <si>
+    <t>9.26013, 27.8333</t>
+  </si>
+  <si>
+    <t>15.47765, 27.8333</t>
+  </si>
+  <si>
+    <t>16.85344, 21.06018</t>
+  </si>
+  <si>
+    <t>63.18054, 42.12036</t>
   </si>
 </sst>
 </file>
@@ -1951,7 +2032,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2094,6 +2175,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -12289,11 +12373,11 @@
   <dimension ref="A1:BW97"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="BB9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AP53" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="BJ29" sqref="BJ29"/>
+      <selection pane="bottomRight" activeCell="BC67" sqref="BC67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -23934,14 +24018,14 @@
         <v>7</v>
       </c>
       <c r="AM64" s="10">
-        <v>77.66</v>
+        <v>60.82</v>
       </c>
       <c r="AN64" s="12"/>
-      <c r="AO64" s="45">
-        <v>19.71</v>
-      </c>
-      <c r="AP64" s="10">
-        <v>7.45</v>
+      <c r="AO64" s="47" t="s">
+        <v>480</v>
+      </c>
+      <c r="AP64" s="42" t="s">
+        <v>464</v>
       </c>
       <c r="AQ64" s="12"/>
       <c r="AR64" s="12"/>
@@ -23949,14 +24033,14 @@
         <v>7</v>
       </c>
       <c r="AT64" s="10">
-        <v>100</v>
+        <v>63.15</v>
       </c>
       <c r="AU64" s="12"/>
-      <c r="AV64" s="10">
-        <v>25.32</v>
-      </c>
-      <c r="AW64" s="10">
-        <v>9.57</v>
+      <c r="AV64" s="48" t="s">
+        <v>484</v>
+      </c>
+      <c r="AW64" s="42" t="s">
+        <v>465</v>
       </c>
       <c r="AX64" s="12"/>
       <c r="AY64" s="12"/>
@@ -23964,14 +24048,14 @@
         <v>7</v>
       </c>
       <c r="BA64" s="10">
-        <v>95.74</v>
+        <v>31.58</v>
       </c>
       <c r="BB64" s="12"/>
-      <c r="BC64" s="10">
-        <v>25.35</v>
-      </c>
-      <c r="BD64" s="10">
-        <v>9.58</v>
+      <c r="BC64" s="42" t="s">
+        <v>487</v>
+      </c>
+      <c r="BD64" s="42" t="s">
+        <v>466</v>
       </c>
       <c r="BE64" s="12"/>
       <c r="BF64" s="12"/>
@@ -23979,14 +24063,12 @@
         <v>7</v>
       </c>
       <c r="BH64" s="10">
-        <v>104.26</v>
+        <v>35.090000000000003</v>
       </c>
       <c r="BI64" s="12"/>
-      <c r="BJ64" s="10">
-        <v>28.12</v>
-      </c>
-      <c r="BK64" s="10">
-        <v>10.63</v>
+      <c r="BJ64" s="10"/>
+      <c r="BK64" s="42" t="s">
+        <v>467</v>
       </c>
       <c r="BL64" s="12"/>
       <c r="BM64" s="12"/>
@@ -24119,14 +24201,14 @@
         <v>7</v>
       </c>
       <c r="AM65" s="10">
-        <v>92.06</v>
+        <v>38.590000000000003</v>
       </c>
       <c r="AN65" s="12"/>
-      <c r="AO65" s="45">
-        <v>33.6</v>
-      </c>
-      <c r="AP65" s="10">
-        <v>12.7</v>
+      <c r="AO65" s="47" t="s">
+        <v>481</v>
+      </c>
+      <c r="AP65" s="42" t="s">
+        <v>468</v>
       </c>
       <c r="AQ65" s="12"/>
       <c r="AR65" s="12"/>
@@ -24134,14 +24216,14 @@
         <v>7</v>
       </c>
       <c r="AT65" s="10">
-        <v>92.06</v>
+        <v>50.29</v>
       </c>
       <c r="AU65" s="12"/>
-      <c r="AV65" s="10">
-        <v>11.67</v>
-      </c>
-      <c r="AW65" s="10">
-        <v>4.41</v>
+      <c r="AV65" s="42" t="s">
+        <v>480</v>
+      </c>
+      <c r="AW65" s="42" t="s">
+        <v>469</v>
       </c>
       <c r="AX65" s="12"/>
       <c r="AY65" s="12"/>
@@ -24149,14 +24231,14 @@
         <v>7</v>
       </c>
       <c r="BA65" s="10">
-        <v>98.41</v>
+        <v>42.1</v>
       </c>
       <c r="BB65" s="12"/>
-      <c r="BC65" s="10">
-        <v>27.99</v>
-      </c>
-      <c r="BD65" s="10">
-        <v>10.58</v>
+      <c r="BC65" s="42" t="s">
+        <v>488</v>
+      </c>
+      <c r="BD65" s="42" t="s">
+        <v>470</v>
       </c>
       <c r="BE65" s="12"/>
       <c r="BF65" s="12"/>
@@ -24164,14 +24246,12 @@
         <v>7</v>
       </c>
       <c r="BH65" s="10">
-        <v>81.48</v>
+        <v>54.97</v>
       </c>
       <c r="BI65" s="12"/>
-      <c r="BJ65" s="10">
-        <v>16.8</v>
-      </c>
-      <c r="BK65" s="10">
-        <v>6.35</v>
+      <c r="BJ65" s="10"/>
+      <c r="BK65" s="42" t="s">
+        <v>471</v>
       </c>
       <c r="BL65" s="12"/>
       <c r="BM65" s="12"/>
@@ -24304,14 +24384,14 @@
         <v>7</v>
       </c>
       <c r="AM66" s="10">
-        <v>114.29</v>
+        <v>52.55</v>
       </c>
       <c r="AN66" s="12"/>
-      <c r="AO66" s="45">
-        <v>26.46</v>
-      </c>
-      <c r="AP66" s="10">
-        <v>10</v>
+      <c r="AO66" s="47" t="s">
+        <v>482</v>
+      </c>
+      <c r="AP66" s="42" t="s">
+        <v>472</v>
       </c>
       <c r="AQ66" s="12"/>
       <c r="AR66" s="12"/>
@@ -24319,14 +24399,14 @@
         <v>7</v>
       </c>
       <c r="AT66" s="10">
-        <v>82.86</v>
+        <v>92.35</v>
       </c>
       <c r="AU66" s="12"/>
-      <c r="AV66" s="10">
-        <v>18.89</v>
-      </c>
-      <c r="AW66" s="10">
-        <v>7.14</v>
+      <c r="AV66" s="42" t="s">
+        <v>485</v>
+      </c>
+      <c r="AW66" s="42" t="s">
+        <v>473</v>
       </c>
       <c r="AX66" s="12"/>
       <c r="AY66" s="12"/>
@@ -24334,14 +24414,14 @@
         <v>7</v>
       </c>
       <c r="BA66" s="10">
-        <v>114.29</v>
+        <v>15.92</v>
       </c>
       <c r="BB66" s="12"/>
-      <c r="BC66" s="10">
-        <v>22.67</v>
-      </c>
-      <c r="BD66" s="10">
-        <v>8.57</v>
+      <c r="BC66" s="42" t="s">
+        <v>489</v>
+      </c>
+      <c r="BD66" s="42" t="s">
+        <v>479</v>
       </c>
       <c r="BE66" s="12"/>
       <c r="BF66" s="12"/>
@@ -24349,14 +24429,12 @@
         <v>7</v>
       </c>
       <c r="BH66" s="10">
-        <v>77.14</v>
+        <v>41.4</v>
       </c>
       <c r="BI66" s="12"/>
-      <c r="BJ66" s="10">
-        <v>15.13</v>
-      </c>
-      <c r="BK66" s="10">
-        <v>5.72</v>
+      <c r="BJ66" s="10"/>
+      <c r="BK66" s="42" t="s">
+        <v>474</v>
       </c>
       <c r="BL66" s="12"/>
       <c r="BM66" s="12"/>
@@ -24489,14 +24567,14 @@
         <v>7</v>
       </c>
       <c r="AM67" s="10">
-        <v>92.49</v>
+        <v>55.74</v>
       </c>
       <c r="AN67" s="12"/>
-      <c r="AO67" s="45">
-        <v>38.229999999999997</v>
-      </c>
-      <c r="AP67" s="10">
-        <v>14.45</v>
+      <c r="AO67" s="47" t="s">
+        <v>483</v>
+      </c>
+      <c r="AP67" s="42" t="s">
+        <v>475</v>
       </c>
       <c r="AQ67" s="12"/>
       <c r="AR67" s="12"/>
@@ -24504,14 +24582,14 @@
         <v>7</v>
       </c>
       <c r="AT67" s="10">
-        <v>63.58</v>
+        <v>41.4</v>
       </c>
       <c r="AU67" s="12"/>
-      <c r="AV67" s="10">
-        <v>15.29</v>
-      </c>
-      <c r="AW67" s="10">
-        <v>5.78</v>
+      <c r="AV67" s="42" t="s">
+        <v>486</v>
+      </c>
+      <c r="AW67" s="42" t="s">
+        <v>476</v>
       </c>
       <c r="AX67" s="12"/>
       <c r="AY67" s="12"/>
@@ -24519,14 +24597,14 @@
         <v>7</v>
       </c>
       <c r="BA67" s="10">
-        <v>106.94</v>
+        <v>76.430000000000007</v>
       </c>
       <c r="BB67" s="12"/>
-      <c r="BC67" s="10">
-        <v>38.229999999999997</v>
-      </c>
-      <c r="BD67" s="10">
-        <v>14.45</v>
+      <c r="BC67" s="42" t="s">
+        <v>490</v>
+      </c>
+      <c r="BD67" s="42" t="s">
+        <v>477</v>
       </c>
       <c r="BE67" s="12"/>
       <c r="BF67" s="12"/>
@@ -24534,14 +24612,12 @@
         <v>7</v>
       </c>
       <c r="BH67" s="10">
-        <v>88.15</v>
+        <v>55.73</v>
       </c>
       <c r="BI67" s="12"/>
-      <c r="BJ67" s="10">
-        <v>15.29</v>
-      </c>
-      <c r="BK67" s="10">
-        <v>5.78</v>
+      <c r="BJ67" s="10"/>
+      <c r="BK67" s="42" t="s">
+        <v>478</v>
       </c>
       <c r="BL67" s="12"/>
       <c r="BM67" s="12"/>

--- a/Data/Full_data_ML3.xlsx
+++ b/Data/Full_data_ML3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erinmacartney/Documents/EE_stress_MA/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A8212D-747B-F34C-A23E-E2CC3DF277CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F53926-D359-9D41-AE58-17E29CABF39C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -247,7 +247,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="488">
   <si>
     <t>Study_ID</t>
   </si>
@@ -1689,37 +1689,28 @@
     <t>6.37, 7.96</t>
   </si>
   <si>
-    <t>24.76423, 21.6687</t>
-  </si>
-  <si>
-    <t>27.85976, 34.02436</t>
-  </si>
-  <si>
-    <t>54.76705, 29.50013</t>
-  </si>
-  <si>
-    <t>63.18054, 42.14682</t>
-  </si>
-  <si>
-    <t>37.14635, 24.73777</t>
-  </si>
-  <si>
-    <t>42.14682. 25.26693</t>
-  </si>
-  <si>
-    <t>33.70687, 16.85344</t>
-  </si>
-  <si>
-    <t>9.26013, 27.8333</t>
-  </si>
-  <si>
-    <t>15.47765, 27.8333</t>
-  </si>
-  <si>
-    <t>16.85344, 21.06018</t>
-  </si>
-  <si>
-    <t>63.18054, 42.12036</t>
+    <t>10.34, 8. 42</t>
+  </si>
+  <si>
+    <t>17.6, 11.11</t>
+  </si>
+  <si>
+    <t>10.72, 12.25</t>
+  </si>
+  <si>
+    <t>8.42, 9.57</t>
+  </si>
+  <si>
+    <t>1.73, 1.1</t>
+  </si>
+  <si>
+    <t>1.9, 1.21</t>
+  </si>
+  <si>
+    <t>2.59, 1.26</t>
+  </si>
+  <si>
+    <t>2.24, 1.04</t>
   </si>
 </sst>
 </file>
@@ -12373,11 +12364,11 @@
   <dimension ref="A1:BW97"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AP53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AY84" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="BC67" sqref="BC67"/>
+      <selection pane="bottomRight" activeCell="BJ97" sqref="BJ97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -24021,8 +24012,8 @@
         <v>60.82</v>
       </c>
       <c r="AN64" s="12"/>
-      <c r="AO64" s="47" t="s">
-        <v>480</v>
+      <c r="AO64" s="47">
+        <v>23.370729999999998</v>
       </c>
       <c r="AP64" s="42" t="s">
         <v>464</v>
@@ -24036,8 +24027,8 @@
         <v>63.15</v>
       </c>
       <c r="AU64" s="12"/>
-      <c r="AV64" s="48" t="s">
-        <v>484</v>
+      <c r="AV64" s="48">
+        <v>32.755009999999999</v>
       </c>
       <c r="AW64" s="42" t="s">
         <v>465</v>
@@ -24051,8 +24042,8 @@
         <v>31.58</v>
       </c>
       <c r="BB64" s="12"/>
-      <c r="BC64" s="42" t="s">
-        <v>487</v>
+      <c r="BC64" s="42">
+        <v>24.55</v>
       </c>
       <c r="BD64" s="42" t="s">
         <v>466</v>
@@ -24066,7 +24057,9 @@
         <v>35.090000000000003</v>
       </c>
       <c r="BI64" s="12"/>
-      <c r="BJ64" s="10"/>
+      <c r="BJ64" s="42">
+        <v>25.338000000000001</v>
+      </c>
       <c r="BK64" s="42" t="s">
         <v>467</v>
       </c>
@@ -24204,8 +24197,8 @@
         <v>38.590000000000003</v>
       </c>
       <c r="AN65" s="12"/>
-      <c r="AO65" s="47" t="s">
-        <v>481</v>
+      <c r="AO65" s="47">
+        <v>31.399249999999999</v>
       </c>
       <c r="AP65" s="42" t="s">
         <v>468</v>
@@ -24219,8 +24212,8 @@
         <v>50.29</v>
       </c>
       <c r="AU65" s="12"/>
-      <c r="AV65" s="42" t="s">
-        <v>480</v>
+      <c r="AV65" s="42">
+        <v>23.370729999999998</v>
       </c>
       <c r="AW65" s="42" t="s">
         <v>469</v>
@@ -24234,8 +24227,8 @@
         <v>42.1</v>
       </c>
       <c r="BB65" s="12"/>
-      <c r="BC65" s="42" t="s">
-        <v>488</v>
+      <c r="BC65" s="42">
+        <v>24.15484</v>
       </c>
       <c r="BD65" s="42" t="s">
         <v>470</v>
@@ -24249,7 +24242,9 @@
         <v>54.97</v>
       </c>
       <c r="BI65" s="12"/>
-      <c r="BJ65" s="10"/>
+      <c r="BJ65" s="42">
+        <v>25.338000000000001</v>
+      </c>
       <c r="BK65" s="42" t="s">
         <v>471</v>
       </c>
@@ -24387,8 +24382,8 @@
         <v>52.55</v>
       </c>
       <c r="AN66" s="12"/>
-      <c r="AO66" s="47" t="s">
-        <v>482</v>
+      <c r="AO66" s="47">
+        <v>47.476860000000002</v>
       </c>
       <c r="AP66" s="42" t="s">
         <v>472</v>
@@ -24402,8 +24397,8 @@
         <v>92.35</v>
       </c>
       <c r="AU66" s="12"/>
-      <c r="AV66" s="42" t="s">
-        <v>485</v>
+      <c r="AV66" s="42">
+        <v>36.740319999999997</v>
       </c>
       <c r="AW66" s="42" t="s">
         <v>473</v>
@@ -24417,8 +24412,8 @@
         <v>15.92</v>
       </c>
       <c r="BB66" s="12"/>
-      <c r="BC66" s="42" t="s">
-        <v>489</v>
+      <c r="BC66" s="42">
+        <v>19.303709999999999</v>
       </c>
       <c r="BD66" s="42" t="s">
         <v>479</v>
@@ -24432,7 +24427,9 @@
         <v>41.4</v>
       </c>
       <c r="BI66" s="12"/>
-      <c r="BJ66" s="10"/>
+      <c r="BJ66" s="42">
+        <v>19.303709999999999</v>
+      </c>
       <c r="BK66" s="42" t="s">
         <v>474</v>
       </c>
@@ -24570,8 +24567,8 @@
         <v>55.74</v>
       </c>
       <c r="AN67" s="12"/>
-      <c r="AO67" s="47" t="s">
-        <v>483</v>
+      <c r="AO67" s="47">
+        <v>55.725009999999997</v>
       </c>
       <c r="AP67" s="42" t="s">
         <v>475</v>
@@ -24585,8 +24582,8 @@
         <v>41.4</v>
       </c>
       <c r="AU67" s="12"/>
-      <c r="AV67" s="42" t="s">
-        <v>486</v>
+      <c r="AV67" s="42">
+        <v>29.191009999999999</v>
       </c>
       <c r="AW67" s="42" t="s">
         <v>476</v>
@@ -24600,8 +24597,8 @@
         <v>76.430000000000007</v>
       </c>
       <c r="BB67" s="12"/>
-      <c r="BC67" s="42" t="s">
-        <v>490</v>
+      <c r="BC67" s="42">
+        <v>55.72</v>
       </c>
       <c r="BD67" s="42" t="s">
         <v>477</v>
@@ -24615,7 +24612,9 @@
         <v>55.73</v>
       </c>
       <c r="BI67" s="12"/>
-      <c r="BJ67" s="10"/>
+      <c r="BJ67" s="42">
+        <v>29.191009999999999</v>
+      </c>
       <c r="BK67" s="42" t="s">
         <v>478</v>
       </c>
@@ -29561,14 +29560,14 @@
         <v>4</v>
       </c>
       <c r="AM95" s="10">
-        <v>49.86</v>
+        <v>22.2</v>
       </c>
       <c r="AN95" s="12"/>
-      <c r="AO95" s="45">
-        <v>17</v>
-      </c>
-      <c r="AP95" s="10">
-        <v>8.5</v>
+      <c r="AO95" s="47">
+        <v>19.05247</v>
+      </c>
+      <c r="AP95" s="42" t="s">
+        <v>480</v>
       </c>
       <c r="AQ95" s="12"/>
       <c r="AR95" s="12"/>
@@ -29576,14 +29575,14 @@
         <v>4</v>
       </c>
       <c r="AT95" s="10">
-        <v>69.569999999999993</v>
+        <v>47.09</v>
       </c>
       <c r="AU95" s="12"/>
-      <c r="AV95" s="10">
-        <v>22.42</v>
-      </c>
-      <c r="AW95" s="10">
-        <v>11.21</v>
+      <c r="AV95" s="42">
+        <v>30.8322</v>
+      </c>
+      <c r="AW95" s="42" t="s">
+        <v>481</v>
       </c>
       <c r="AX95" s="12"/>
       <c r="AY95" s="12"/>
@@ -29591,14 +29590,14 @@
         <v>4</v>
       </c>
       <c r="BA95" s="10">
-        <v>77.290000000000006</v>
+        <v>1.91</v>
       </c>
       <c r="BB95" s="12"/>
-      <c r="BC95" s="10">
-        <v>24.74</v>
-      </c>
-      <c r="BD95" s="10">
-        <v>12.37</v>
+      <c r="BC95" s="42">
+        <v>23.12236</v>
+      </c>
+      <c r="BD95" s="42" t="s">
+        <v>482</v>
       </c>
       <c r="BE95" s="12"/>
       <c r="BF95" s="12"/>
@@ -29606,14 +29605,14 @@
         <v>4</v>
       </c>
       <c r="BH95" s="10">
-        <v>62.22</v>
+        <v>17.23</v>
       </c>
       <c r="BI95" s="12"/>
-      <c r="BJ95" s="10">
-        <v>18.559999999999999</v>
-      </c>
-      <c r="BK95" s="10">
-        <v>9.2799999999999994</v>
+      <c r="BJ95" s="42">
+        <v>18.099930000000001</v>
+      </c>
+      <c r="BK95" s="42" t="s">
+        <v>483</v>
       </c>
       <c r="BL95" s="12"/>
       <c r="BM95" s="12"/>
@@ -29931,14 +29930,14 @@
         <v>13</v>
       </c>
       <c r="AM97" s="10">
-        <v>15.24</v>
+        <v>4.03</v>
       </c>
       <c r="AN97" s="12"/>
-      <c r="AO97" s="45">
-        <v>3.6416067879999998</v>
-      </c>
-      <c r="AP97" s="10">
-        <v>1.01</v>
+      <c r="AO97" s="47">
+        <v>5.4679710000000004</v>
+      </c>
+      <c r="AP97" s="42" t="s">
+        <v>484</v>
       </c>
       <c r="AQ97" s="12"/>
       <c r="AR97" s="12"/>
@@ -29946,14 +29945,14 @@
         <v>11</v>
       </c>
       <c r="AT97" s="10">
-        <v>10.86</v>
+        <v>7.08</v>
       </c>
       <c r="AU97" s="12"/>
-      <c r="AV97" s="10">
-        <v>3.3497910380000002</v>
-      </c>
-      <c r="AW97" s="10">
-        <v>1.01</v>
+      <c r="AV97" s="42">
+        <v>6.5005850000000001</v>
+      </c>
+      <c r="AW97" s="42" t="s">
+        <v>487</v>
       </c>
       <c r="AX97" s="12"/>
       <c r="AY97" s="12"/>
@@ -29961,14 +29960,14 @@
         <v>11</v>
       </c>
       <c r="BA97" s="10">
-        <v>11.54</v>
+        <v>5.53</v>
       </c>
       <c r="BB97" s="12"/>
-      <c r="BC97" s="10">
-        <v>4.178947236</v>
-      </c>
-      <c r="BD97" s="10">
-        <v>1.26</v>
+      <c r="BC97" s="42">
+        <v>5.5250430000000001</v>
+      </c>
+      <c r="BD97" s="42" t="s">
+        <v>485</v>
       </c>
       <c r="BE97" s="12"/>
       <c r="BF97" s="12"/>
@@ -29976,14 +29975,14 @@
         <v>10</v>
       </c>
       <c r="BH97" s="10">
-        <v>10.69</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="BI97" s="12"/>
-      <c r="BJ97" s="10">
-        <v>4.016092628</v>
-      </c>
-      <c r="BK97" s="10">
-        <v>1.27</v>
+      <c r="BJ97" s="42">
+        <v>7.0938699999999999</v>
+      </c>
+      <c r="BK97" s="42" t="s">
+        <v>486</v>
       </c>
       <c r="BL97" s="12"/>
       <c r="BM97" s="12"/>
